--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -8793,7 +8793,7 @@
         <v>52</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>53</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="537">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,81 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.id</t>
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+</t>
+  </si>
+  <si>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>UHMEP</t>
+  </si>
+  <si>
+    <t>Reference ID of the UHMEP once available there</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -384,7 +458,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.extension</t>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -393,175 +473,43 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ServiceRequest.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying the reason for the current state of an event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
-</t>
-  </si>
-  <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>UHMEP</t>
-  </si>
-  <si>
-    <t>Reference ID of the UHMEP once available there</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -1348,6 +1296,9 @@
   </si>
   <si>
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
@@ -1883,7 +1834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN81"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1893,7 +1844,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3076,11 +3027,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>44</v>
       </c>
@@ -3089,10 +3042,10 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>44</v>
@@ -3101,13 +3054,13 @@
         <v>44</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3158,19 +3111,19 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>44</v>
@@ -3179,7 +3132,7 @@
         <v>44</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -3190,24 +3143,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>44</v>
@@ -3216,13 +3169,17 @@
         <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
       </c>
@@ -3258,19 +3215,19 @@
         <v>44</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -3291,7 +3248,7 @@
         <v>44</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>44</v>
@@ -3302,7 +3259,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3310,31 +3267,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3342,7 +3299,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>44</v>
@@ -3372,59 +3329,59 @@
         <v>44</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>52</v>
@@ -3436,18 +3393,20 @@
         <v>44</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3472,10 +3431,10 @@
         <v>44</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>44</v>
@@ -3484,23 +3443,25 @@
         <v>44</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>44</v>
@@ -3509,34 +3470,32 @@
         <v>64</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>52</v>
@@ -3551,13 +3510,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3584,10 +3543,10 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>44</v>
@@ -3608,7 +3567,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3620,7 +3579,7 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>44</v>
@@ -3629,7 +3588,7 @@
         <v>44</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>44</v>
@@ -3638,15 +3597,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3656,7 +3613,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>44</v>
@@ -3665,15 +3622,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3710,19 +3669,19 @@
         <v>44</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3731,7 +3690,7 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3743,7 +3702,7 @@
         <v>44</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>44</v>
@@ -3754,18 +3713,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>44</v>
@@ -3774,22 +3733,22 @@
         <v>53</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -3814,13 +3773,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3838,28 +3797,28 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3870,7 +3829,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3881,10 +3840,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>44</v>
@@ -3893,18 +3852,20 @@
         <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
       </c>
@@ -3928,35 +3889,37 @@
         <v>44</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>44</v>
@@ -3965,34 +3928,32 @@
         <v>64</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>52</v>
@@ -4007,30 +3968,32 @@
         <v>53</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>44</v>
@@ -4066,13 +4029,13 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>44</v>
@@ -4081,24 +4044,24 @@
         <v>64</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>156</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4106,7 +4069,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>52</v>
@@ -4118,18 +4081,20 @@
         <v>44</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>44</v>
@@ -4142,7 +4107,7 @@
         <v>44</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>44</v>
@@ -4178,7 +4143,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4190,16 +4155,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -4210,18 +4175,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>44</v>
@@ -4230,20 +4195,18 @@
         <v>44</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -4280,40 +4243,40 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -4324,7 +4287,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4341,26 +4304,24 @@
         <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
@@ -4384,13 +4345,13 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>44</v>
@@ -4408,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4426,10 +4387,10 @@
         <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>44</v>
@@ -4440,7 +4401,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4451,7 +4412,7 @@
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>44</v>
@@ -4463,20 +4424,18 @@
         <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>44</v>
       </c>
@@ -4500,13 +4459,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4524,13 +4483,13 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>44</v>
@@ -4539,13 +4498,13 @@
         <v>64</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>44</v>
@@ -4556,7 +4515,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4564,10 +4523,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4582,29 +4541,27 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>44</v>
@@ -4640,13 +4597,13 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>44</v>
@@ -4655,13 +4612,13 @@
         <v>64</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>44</v>
@@ -4672,18 +4629,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4695,17 +4652,15 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4718,7 +4673,7 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>44</v>
@@ -4754,13 +4709,13 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>44</v>
@@ -4769,13 +4724,13 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>44</v>
@@ -4786,18 +4741,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4809,13 +4764,13 @@
         <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4866,13 +4821,13 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>44</v>
@@ -4881,13 +4836,13 @@
         <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -4896,13 +4851,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4912,7 +4867,7 @@
         <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>44</v>
@@ -4921,18 +4876,20 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
       </c>
@@ -4980,7 +4937,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4995,13 +4952,13 @@
         <v>64</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -5010,9 +4967,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5020,31 +4977,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5070,13 +5027,13 @@
         <v>44</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>44</v>
+        <v>241</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>44</v>
@@ -5094,13 +5051,13 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>44</v>
@@ -5109,24 +5066,24 @@
         <v>64</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>44</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5134,31 +5091,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5184,13 +5141,13 @@
         <v>44</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
@@ -5208,13 +5165,13 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>44</v>
@@ -5223,38 +5180,38 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>44</v>
@@ -5263,16 +5220,20 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
       </c>
@@ -5296,13 +5257,11 @@
         <v>44</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>44</v>
@@ -5320,7 +5279,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5335,16 +5294,16 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5352,18 +5311,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>44</v>
@@ -5372,16 +5331,16 @@
         <v>44</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5432,28 +5391,28 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>44</v>
@@ -5462,45 +5421,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>44</v>
       </c>
@@ -5536,40 +5493,40 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -5578,9 +5535,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5588,33 +5545,35 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
       </c>
@@ -5638,13 +5597,13 @@
         <v>44</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>44</v>
@@ -5662,13 +5621,13 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>44</v>
@@ -5677,24 +5636,24 @@
         <v>64</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5702,7 +5661,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5711,23 +5670,21 @@
         <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>44</v>
@@ -5752,13 +5709,13 @@
         <v>44</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>44</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>44</v>
@@ -5776,10 +5733,10 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>138</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>52</v>
@@ -5788,63 +5745,61 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>141</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>142</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
@@ -5868,29 +5823,31 @@
         <v>44</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5902,19 +5859,19 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>44</v>
@@ -5922,7 +5879,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5942,25 +5899,29 @@
         <v>44</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>44</v>
@@ -6002,7 +5963,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6014,16 +5975,16 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>44</v>
@@ -6034,18 +5995,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>44</v>
@@ -6054,19 +6015,19 @@
         <v>44</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6104,40 +6065,40 @@
         <v>44</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>44</v>
@@ -6148,7 +6109,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6159,7 +6120,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>44</v>
@@ -6171,26 +6132,24 @@
         <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>44</v>
@@ -6232,13 +6191,13 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>44</v>
@@ -6250,10 +6209,10 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>44</v>
@@ -6264,7 +6223,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6284,19 +6243,21 @@
         <v>44</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
       </c>
@@ -6344,7 +6305,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6356,16 +6317,16 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>44</v>
@@ -6376,18 +6337,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>44</v>
@@ -6396,21 +6357,23 @@
         <v>44</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
       </c>
@@ -6446,40 +6409,40 @@
         <v>44</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>44</v>
@@ -6490,7 +6453,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6513,26 +6476,26 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6574,7 +6537,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6592,10 +6555,10 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>44</v>
@@ -6606,7 +6569,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6629,22 +6592,22 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="Q42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6664,13 +6627,13 @@
         <v>44</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6688,7 +6651,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6703,16 +6666,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>334</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6720,7 +6683,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6737,30 +6700,34 @@
         <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="Q43" t="s" s="2">
-        <v>314</v>
+        <v>44</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>44</v>
@@ -6802,7 +6769,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6817,13 +6784,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>44</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6832,23 +6799,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>44</v>
@@ -6857,18 +6824,18 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6892,13 +6859,11 @@
         <v>44</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>44</v>
@@ -6916,7 +6881,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6931,24 +6896,24 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>44</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6968,23 +6933,19 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
       </c>
@@ -7032,7 +6993,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7044,16 +7005,16 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>333</v>
+        <v>139</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7064,18 +7025,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>44</v>
@@ -7084,23 +7045,21 @@
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
@@ -7136,40 +7095,40 @@
         <v>44</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>139</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7180,7 +7139,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7191,7 +7150,7 @@
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>44</v>
@@ -7203,22 +7162,24 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>343</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P47" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>44</v>
       </c>
@@ -7238,13 +7199,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -7262,13 +7223,13 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>44</v>
@@ -7277,16 +7238,16 @@
         <v>64</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>274</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7294,7 +7255,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7311,32 +7272,26 @@
         <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>353</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7380,7 +7335,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7392,59 +7347,59 @@
         <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>361</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>142</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
+        <v>119</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7470,61 +7425,63 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>139</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>370</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7544,19 +7501,23 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7604,7 +7565,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7616,16 +7577,16 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7636,18 +7597,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>44</v>
@@ -7656,19 +7617,19 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>162</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>143</v>
+        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7706,40 +7667,40 @@
         <v>44</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
@@ -7750,7 +7711,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7761,7 +7722,7 @@
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>44</v>
@@ -7773,26 +7734,24 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>44</v>
@@ -7834,13 +7793,13 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>44</v>
@@ -7852,10 +7811,10 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>44</v>
@@ -7866,7 +7825,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7886,19 +7845,21 @@
         <v>44</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
       </c>
@@ -7946,7 +7907,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7958,16 +7919,16 @@
         <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>116</v>
+        <v>307</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>44</v>
@@ -7978,18 +7939,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>44</v>
@@ -7998,21 +7959,23 @@
         <v>44</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
       </c>
@@ -8048,40 +8011,40 @@
         <v>44</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
@@ -8092,7 +8055,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8115,19 +8078,19 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>44</v>
@@ -8176,7 +8139,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8194,10 +8157,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -8206,23 +8169,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>44</v>
+        <v>367</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>44</v>
@@ -8231,16 +8194,16 @@
         <v>53</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8266,13 +8229,11 @@
         <v>44</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>44</v>
@@ -8290,16 +8251,16 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>64</v>
@@ -8308,21 +8269,21 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>44</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8345,24 +8306,24 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>376</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>44</v>
@@ -8404,7 +8365,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8422,10 +8383,10 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>317</v>
+        <v>379</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8434,7 +8395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>380</v>
       </c>
@@ -8444,13 +8405,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>44</v>
@@ -8459,18 +8420,16 @@
         <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>383</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
@@ -8518,10 +8477,10 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>52</v>
@@ -8533,28 +8492,28 @@
         <v>64</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>44</v>
+        <v>384</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>323</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>44</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>44</v>
+        <v>390</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8573,20 +8532,16 @@
         <v>53</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>327</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8634,7 +8589,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8649,28 +8604,28 @@
         <v>64</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>44</v>
+        <v>397</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>44</v>
+        <v>398</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8680,7 +8635,7 @@
         <v>52</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>44</v>
@@ -8689,20 +8644,16 @@
         <v>53</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>54</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
@@ -8750,7 +8701,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8765,35 +8716,35 @@
         <v>64</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>44</v>
+        <v>407</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>44</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>384</v>
+        <v>44</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>53</v>
@@ -8805,17 +8756,15 @@
         <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8840,11 +8789,13 @@
         <v>44</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>44</v>
@@ -8862,16 +8813,16 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>64</v>
@@ -8880,25 +8831,25 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>390</v>
+        <v>44</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>44</v>
+        <v>419</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8908,7 +8859,7 @@
         <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>44</v>
@@ -8917,18 +8868,16 @@
         <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>44</v>
       </c>
@@ -8976,7 +8925,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8991,28 +8940,28 @@
         <v>64</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>44</v>
+        <v>423</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>44</v>
+        <v>426</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>44</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9031,15 +8980,17 @@
         <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9088,10 +9039,10 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
@@ -9103,28 +9054,28 @@
         <v>64</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9134,7 +9085,7 @@
         <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>44</v>
@@ -9143,15 +9094,17 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>408</v>
+        <v>156</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -9176,13 +9129,13 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>44</v>
+        <v>445</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>44</v>
@@ -9200,7 +9153,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9215,35 +9168,35 @@
         <v>64</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>415</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>53</v>
@@ -9255,15 +9208,17 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>44</v>
@@ -9312,13 +9267,13 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>44</v>
@@ -9327,24 +9282,24 @@
         <v>64</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>425</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9355,10 +9310,10 @@
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>44</v>
@@ -9367,13 +9322,13 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>427</v>
+        <v>156</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9400,13 +9355,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9424,13 +9379,13 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>44</v>
@@ -9445,32 +9400,32 @@
         <v>44</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>433</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>44</v>
@@ -9479,13 +9434,13 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9536,13 +9491,13 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>44</v>
@@ -9551,35 +9506,35 @@
         <v>64</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>439</v>
+        <v>44</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>440</v>
+        <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>443</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>445</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>53</v>
@@ -9591,16 +9546,16 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>446</v>
+        <v>156</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9626,13 +9581,13 @@
         <v>44</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>44</v>
+        <v>413</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>44</v>
+        <v>474</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>44</v>
@@ -9650,13 +9605,13 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>44</v>
@@ -9665,38 +9620,38 @@
         <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>454</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>456</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>44</v>
@@ -9705,16 +9660,16 @@
         <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9740,13 +9695,13 @@
         <v>44</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>461</v>
+        <v>44</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>44</v>
@@ -9764,13 +9719,13 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>44</v>
@@ -9779,28 +9734,28 @@
         <v>64</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>467</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9810,26 +9765,24 @@
         <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -9878,7 +9831,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9893,28 +9846,28 @@
         <v>64</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9924,24 +9877,26 @@
         <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>135</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>44</v>
@@ -9966,13 +9921,13 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>478</v>
+        <v>44</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>479</v>
+        <v>44</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>44</v>
@@ -9990,7 +9945,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10005,16 +9960,16 @@
         <v>64</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>44</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -10022,7 +9977,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10045,15 +10000,17 @@
         <v>53</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>44</v>
@@ -10102,7 +10059,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10120,13 +10077,13 @@
         <v>44</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>44</v>
+        <v>508</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10134,11 +10091,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>44</v>
+        <v>511</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10157,18 +10114,20 @@
         <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>44</v>
       </c>
@@ -10192,13 +10151,13 @@
         <v>44</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>129</v>
+        <v>413</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>44</v>
@@ -10216,7 +10175,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10231,24 +10190,24 @@
         <v>64</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>44</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10262,26 +10221,24 @@
         <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>497</v>
+        <v>12</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10330,7 +10287,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10345,24 +10302,24 @@
         <v>64</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>501</v>
+        <v>373</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>494</v>
+        <v>44</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>44</v>
+        <v>525</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10373,25 +10330,25 @@
         <v>42</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>504</v>
+        <v>54</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10442,13 +10399,13 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>44</v>
@@ -10457,13 +10414,13 @@
         <v>64</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>373</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>44</v>
@@ -10472,13 +10429,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>511</v>
+        <v>44</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10488,7 +10445,7 @@
         <v>43</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>44</v>
@@ -10497,16 +10454,16 @@
         <v>44</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10556,7 +10513,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10571,591 +10528,23 @@
         <v>64</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>95</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN81" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN81">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11165,7 +10554,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -1940,7 +1940,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2028,77 +2028,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -1366,16 +1366,19 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1389,6 +1392,9 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2117,7 +2123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2127,7 +2133,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8902,7 +8908,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>434</v>
       </c>
@@ -8912,7 +8918,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -8927,13 +8933,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8972,16 +8978,14 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>434</v>
@@ -8999,32 +9003,34 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
@@ -9039,13 +9045,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>445</v>
+        <v>220</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9072,13 +9078,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9096,7 +9102,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9111,28 +9117,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9151,13 +9157,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9184,13 +9190,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9208,7 +9214,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9223,32 +9229,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9263,17 +9269,15 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9322,7 +9326,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9337,32 +9341,32 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9377,16 +9381,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9412,13 +9416,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9436,7 +9440,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9451,35 +9455,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9491,16 +9495,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>487</v>
+        <v>191</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9526,13 +9530,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9550,13 +9554,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9565,28 +9569,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9596,7 +9600,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9605,15 +9609,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>489</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9638,13 +9644,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9662,7 +9668,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9677,16 +9683,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9694,7 +9700,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9717,13 +9723,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>501</v>
+        <v>191</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9750,13 +9756,13 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>79</v>
@@ -9774,7 +9780,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9795,18 +9801,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9820,7 +9826,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9829,17 +9835,15 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>191</v>
+        <v>503</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9864,13 +9868,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9888,7 +9892,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9903,24 +9907,24 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9934,7 +9938,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9943,16 +9947,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>515</v>
+        <v>191</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9978,13 +9982,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10002,7 +10006,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10017,16 +10021,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10034,7 +10038,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10054,18 +10058,20 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>519</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10114,7 +10120,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10129,28 +10135,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>515</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10160,7 +10166,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10169,17 +10175,15 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10228,7 +10232,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10243,13 +10247,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10258,13 +10262,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>532</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10274,25 +10278,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10342,7 +10346,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10357,13 +10361,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10372,13 +10376,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10388,7 +10392,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10397,20 +10401,18 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>541</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10434,13 +10436,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10458,7 +10460,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10476,25 +10478,25 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10510,19 +10512,23 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>48</v>
+        <v>549</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10546,13 +10552,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10570,7 +10576,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10585,24 +10591,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>408</v>
+        <v>545</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10613,7 +10619,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10622,16 +10628,16 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>558</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>562</v>
+        <v>48</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10682,13 +10688,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10697,24 +10703,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>562</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10725,29 +10731,27 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>566</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10796,13 +10800,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10811,23 +10815,137 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="M77" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10837,7 +10955,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -1366,19 +1366,16 @@
 </t>
   </si>
   <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
     <t>When service shall occur - once this is past, this prescription is no longer valid and the status shall reflect this.</t>
   </si>
   <si>
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1392,9 +1389,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>occurrencePeriod</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -2123,7 +2117,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2133,7 +2127,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -8908,7 +8902,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>434</v>
       </c>
@@ -8918,7 +8912,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
@@ -8933,13 +8927,13 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>220</v>
+        <v>436</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8978,14 +8972,16 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>434</v>
@@ -9003,34 +8999,32 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
@@ -9045,13 +9039,13 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>220</v>
+        <v>445</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9078,13 +9072,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9102,7 +9096,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9117,28 +9111,28 @@
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9157,13 +9151,13 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9190,13 +9184,13 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -9214,7 +9208,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9229,32 +9223,32 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>87</v>
@@ -9269,15 +9263,17 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9326,7 +9322,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9341,32 +9337,32 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
@@ -9381,16 +9377,16 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>467</v>
+        <v>191</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9416,13 +9412,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9440,7 +9436,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9455,35 +9451,35 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9495,16 +9491,16 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>191</v>
+        <v>487</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9530,13 +9526,13 @@
         <v>79</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>79</v>
@@ -9554,13 +9550,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9569,28 +9565,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9600,7 +9596,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9609,17 +9605,15 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>489</v>
+        <v>191</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9644,13 +9638,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9668,7 +9662,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9683,16 +9677,16 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9700,7 +9694,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9723,13 +9717,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>191</v>
+        <v>501</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9756,31 +9750,31 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9801,18 +9795,18 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9826,7 +9820,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9835,15 +9829,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>503</v>
+        <v>191</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9868,13 +9864,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9892,7 +9888,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9907,24 +9903,24 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9938,7 +9934,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9947,16 +9943,16 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>191</v>
+        <v>515</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9982,13 +9978,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10006,7 +10002,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10021,16 +10017,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10038,7 +10034,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10058,20 +10054,18 @@
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10120,7 +10114,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10135,28 +10129,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10166,7 +10160,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10175,15 +10169,17 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10232,7 +10228,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10247,13 +10243,13 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -10262,13 +10258,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10278,25 +10274,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10346,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10361,13 +10357,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10376,13 +10372,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10392,7 +10388,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10401,18 +10397,20 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>541</v>
+        <v>191</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10436,13 +10434,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10460,7 +10458,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10478,25 +10476,25 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10512,23 +10510,19 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>191</v>
+        <v>556</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>549</v>
+        <v>48</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10552,13 +10546,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10576,7 +10570,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10591,24 +10585,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>545</v>
+        <v>408</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10619,7 +10613,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10628,16 +10622,16 @@
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>558</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>48</v>
+        <v>562</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10688,13 +10682,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10703,24 +10697,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>408</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10731,27 +10725,29 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>566</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10800,13 +10796,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10815,137 +10811,23 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>408</v>
+        <v>130</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10955,7 +10837,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -475,6 +475,86 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/request-statusReason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying the reason for the current state of an event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+  </si>
+  <si>
     <t>informParty</t>
   </si>
   <si>
@@ -485,6 +565,35 @@
     <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
+    <t>coprescriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+</t>
+  </si>
+  <si>
+    <t>Other parties that have to take part in the prescription.</t>
+  </si>
+  <si>
+    <t>Other practitioners that must take part in this prescripiton</t>
+  </si>
+  <si>
+    <t>validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {resource-effectivePeriod}
+</t>
+  </si>
+  <si>
+    <t>Validity period of the prescription</t>
+  </si>
+  <si>
+    <t>The period during which the resource content was or is planned to be effective.</t>
+  </si>
+  <si>
+    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -552,18 +661,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -573,12 +670,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -612,10 +703,6 @@
     <t>ServiceRequest.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Description of identifier</t>
   </si>
   <si>
@@ -626,9 +713,6 @@
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -870,7 +954,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1404,9 +1488,6 @@
     <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
@@ -1589,7 +1670,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1623,7 +1704,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -2117,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2127,7 +2208,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3094,7 +3175,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3310,13 +3391,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3325,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3337,13 +3416,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3394,19 +3473,19 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3415,7 +3494,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3426,24 +3505,24 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
@@ -3452,17 +3531,13 @@
         <v>132</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3498,19 +3573,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3531,7 +3606,7 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>79</v>
@@ -3542,7 +3617,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3550,31 +3625,31 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3582,7 +3657,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3612,59 +3687,59 @@
         <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>87</v>
@@ -3676,20 +3751,18 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3714,10 +3787,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3726,25 +3799,23 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
@@ -3753,32 +3824,34 @@
         <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
@@ -3793,13 +3866,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3826,13 +3899,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3850,7 +3921,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3862,7 +3933,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>79</v>
@@ -3871,7 +3942,7 @@
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3880,13 +3951,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3896,7 +3969,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3905,17 +3978,15 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3952,19 +4023,19 @@
         <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3973,7 +4044,7 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -3985,7 +4056,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3994,11 +4065,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4007,32 +4080,28 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4056,13 +4125,13 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>79</v>
@@ -4080,28 +4149,28 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4110,11 +4179,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4126,29 +4197,27 @@
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4172,13 +4241,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -4196,28 +4265,28 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4228,55 +4297,55 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>79</v>
@@ -4312,28 +4381,28 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4344,7 +4413,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4352,13 +4421,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4367,16 +4436,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4390,7 +4459,7 @@
         <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>79</v>
@@ -4414,25 +4483,23 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4441,26 +4508,28 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4481,15 +4550,17 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4538,13 +4609,13 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
@@ -4553,24 +4624,24 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4590,20 +4661,18 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4652,7 +4721,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4664,16 +4733,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4684,11 +4753,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4704,19 +4773,19 @@
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4754,19 +4823,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4778,16 +4847,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4798,7 +4867,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4809,30 +4878,32 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4856,13 +4927,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4880,13 +4951,13 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
@@ -4895,13 +4966,13 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4912,18 +4983,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4935,16 +5006,20 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>248</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4968,13 +5043,13 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
@@ -4992,13 +5067,13 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5007,13 +5082,13 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5024,18 +5099,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -5047,28 +5122,32 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5104,13 +5183,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5119,13 +5198,13 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5134,23 +5213,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5159,20 +5238,18 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5184,7 +5261,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5220,7 +5297,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5235,13 +5312,13 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5250,9 +5327,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5260,32 +5337,30 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5310,13 +5385,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -5334,10 +5409,10 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5349,24 +5424,24 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5374,7 +5449,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
@@ -5383,22 +5458,22 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5424,13 +5499,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5448,10 +5523,10 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
@@ -5463,24 +5538,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5488,13 +5563,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5503,20 +5578,18 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5540,11 +5613,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y30" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5562,7 +5637,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5577,16 +5652,16 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5594,7 +5669,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5605,7 +5680,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5614,18 +5689,20 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5674,28 +5751,28 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5706,11 +5783,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5726,20 +5803,18 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5776,19 +5851,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5800,16 +5875,16 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5820,11 +5895,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5843,20 +5918,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5904,7 +5975,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5919,13 +5990,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5934,13 +6005,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5950,25 +6021,29 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6016,7 +6091,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6028,16 +6103,16 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6046,41 +6121,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>176</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6106,63 +6181,63 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6170,7 +6245,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>87</v>
@@ -6179,32 +6254,30 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
@@ -6222,13 +6295,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6246,10 +6319,10 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>87</v>
@@ -6261,24 +6334,24 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6286,13 +6359,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6301,18 +6374,20 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6336,13 +6411,11 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6360,13 +6433,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6378,13 +6451,13 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6392,7 +6465,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6412,27 +6485,25 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>79</v>
@@ -6474,7 +6545,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6486,16 +6557,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6506,18 +6577,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6526,21 +6597,21 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6576,40 +6647,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6620,7 +6691,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6631,7 +6702,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>79</v>
@@ -6643,19 +6714,19 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6704,13 +6775,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6722,10 +6793,10 @@
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6736,7 +6807,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6756,23 +6827,19 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6820,7 +6887,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6832,16 +6899,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6852,18 +6919,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6872,25 +6939,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6910,55 +6977,55 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>368</v>
+        <v>151</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6966,7 +7033,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6983,35 +7050,33 @@
         <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7052,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7067,13 +7132,13 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7082,23 +7147,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7107,16 +7172,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7142,11 +7207,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7164,7 +7231,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7179,24 +7246,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7216,25 +7283,27 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7276,7 +7345,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7288,16 +7357,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>174</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7308,18 +7377,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7328,21 +7397,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7378,40 +7447,40 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>174</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7422,7 +7491,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7433,7 +7502,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7445,19 +7514,19 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7506,13 +7575,13 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
@@ -7524,10 +7593,10 @@
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7538,7 +7607,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7558,19 +7627,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7618,7 +7691,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>173</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7630,16 +7703,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7650,18 +7723,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7670,25 +7743,25 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7708,55 +7781,55 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>174</v>
+        <v>395</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7764,7 +7837,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7781,30 +7854,32 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>313</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7848,7 +7923,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7863,13 +7938,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7878,23 +7953,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7903,16 +7978,16 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7938,13 +8013,11 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -7962,7 +8035,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7977,24 +8050,24 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8014,27 +8087,25 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>149</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8076,7 +8147,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8088,16 +8159,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8108,18 +8179,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8128,21 +8199,21 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8178,40 +8249,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>151</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8222,7 +8293,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8233,7 +8304,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8245,19 +8316,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8306,13 +8377,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8324,10 +8395,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8338,7 +8409,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8358,23 +8429,19 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8422,7 +8489,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8434,16 +8501,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8452,41 +8519,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>208</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>189</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8512,29 +8579,31 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8543,30 +8612,30 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>407</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8589,17 +8658,19 @@
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>411</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8648,7 +8719,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8666,10 +8737,10 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>414</v>
+        <v>347</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8678,9 +8749,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8688,13 +8759,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8703,15 +8774,17 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>416</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8760,10 +8833,10 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -8775,28 +8848,28 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8815,22 +8888,24 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>427</v>
+        <v>356</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8872,7 +8947,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>360</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8887,28 +8962,28 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8918,7 +8993,7 @@
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8927,16 +9002,18 @@
         <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>436</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>365</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8984,7 +9061,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>434</v>
+        <v>367</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8999,24 +9076,24 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>441</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9030,7 +9107,7 @@
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9039,16 +9116,20 @@
         <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9072,13 +9153,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9096,7 +9177,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9114,25 +9195,25 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>451</v>
+        <v>378</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9142,7 +9223,7 @@
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9151,16 +9232,20 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9208,7 +9293,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9223,35 +9308,35 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -9263,16 +9348,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>465</v>
+        <v>162</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9298,13 +9383,11 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9322,43 +9405,43 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>473</v>
+        <v>415</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9368,7 +9451,7 @@
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9377,18 +9460,18 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9412,13 +9495,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9436,7 +9519,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9451,16 +9534,16 @@
         <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9468,18 +9551,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9491,17 +9574,15 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9550,13 +9631,13 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
@@ -9565,35 +9646,35 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9605,13 +9686,13 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>191</v>
+        <v>453</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9638,13 +9719,13 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>79</v>
@@ -9662,13 +9743,13 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
@@ -9677,38 +9758,38 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9717,13 +9798,13 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9774,13 +9855,13 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
@@ -9789,24 +9870,24 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9817,7 +9898,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
@@ -9829,17 +9910,15 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9864,13 +9943,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9888,13 +9967,13 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>79</v>
@@ -9903,38 +9982,38 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9943,17 +10022,15 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10002,13 +10079,13 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
@@ -10017,55 +10094,57 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10114,13 +10193,13 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>79</v>
@@ -10129,35 +10208,35 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>88</v>
@@ -10166,19 +10245,19 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>531</v>
+        <v>162</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10204,13 +10283,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10228,13 +10307,13 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>79</v>
@@ -10243,28 +10322,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>512</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10274,7 +10353,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10283,16 +10362,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10342,7 +10421,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10357,28 +10436,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10388,7 +10467,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10397,20 +10476,16 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10434,13 +10509,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>448</v>
+        <v>165</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10458,7 +10533,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10476,21 +10551,21 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10504,22 +10579,22 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>48</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10570,7 +10645,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10585,24 +10660,24 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10613,7 +10688,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10625,15 +10700,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10658,13 +10735,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10682,13 +10759,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10697,16 +10774,16 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>408</v>
+        <v>537</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10714,7 +10791,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10734,19 +10811,19 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10796,7 +10873,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10811,23 +10888,817 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AK76" t="s" s="2">
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN83">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10837,7 +11708,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI82">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-nursing-compressiontherapy</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing-compressiontherapy</t>
   </si>
   <si>
     <t>Version</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-referralprescription-nursing</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-referralprescription-nursing</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}annex-81:if annex-81 is the code, then adherence and adherence-link SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'appendix-81-preparation-of-medications'  or ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence').empty() = false and ServiceRequest.orderDetail.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence-link').empty() = false}chron-psych:if this is preparation-and-administration-of-medication-to-chronical-psychiatric-patient no orderDetail SHALL be present {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'preparation-and-administration-of-medication-to-chronical-psychiatric-patient'  or ServiceRequest.orderDetail.empty()}gen:if other is the code, then orderDetail SHALL SNOMED-CT {ServiceRequest.code.coding.where(system = 'https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-cs-nursing-code').code != 'other'  or ServiceRequest.orderDetail.coding.where(system = 'http://snomed.info/sct').empty() = false}</t>
   </si>
   <si>
     <t>Request</t>
@@ -425,6 +425,9 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -552,13 +555,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-reason-referral-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
     <t>informParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-ext-inform-party}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
@@ -568,7 +571,7 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
@@ -581,17 +584,76 @@
     <t>validity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {resource-effectivePeriod}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-validity-period}
 </t>
   </si>
   <si>
     <t>Validity period of the prescription</t>
   </si>
   <si>
-    <t>The period during which the resource content was or is planned to be effective.</t>
-  </si>
-  <si>
-    <t>The effective period for a resource  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 would be published in 2015.</t>
+    <t>Begin and enddate of the validity of the request</t>
+  </si>
+  <si>
+    <t>executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-execution-period}
+</t>
+  </si>
+  <si>
+    <t>BeExecutionPeriod</t>
+  </si>
+  <si>
+    <t>Begin and enddate of the execution of the request</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+</t>
+  </si>
+  <si>
+    <t>Request must be executed before</t>
+  </si>
+  <si>
+    <t>Request must be performed before</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+</t>
+  </si>
+  <si>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
+  </si>
+  <si>
+    <t>proposalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-proposal-type}
+</t>
+  </si>
+  <si>
+    <t>BeProposalType</t>
+  </si>
+  <si>
+    <t>Type of proposal</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-task-reference}
+</t>
+  </si>
+  <si>
+    <t>BeTaskReference</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -742,7 +804,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/NamingSystem/uhmep</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/NamingSystem/uhmep</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -1020,7 +1082,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-referral-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-referral-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1284,7 +1346,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-type-of-nursing</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-type-of-nursing</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1354,7 +1416,7 @@
     <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-type-of-compression</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-type-of-compression</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1386,7 +1448,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient)
+    <t xml:space="preserve">Reference(Group|Location|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient)
 </t>
   </si>
   <si>
@@ -1539,7 +1601,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(RelatedPerson|Device|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -1608,7 +1670,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -2021,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2109,85 +2171,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>35</v>
       </c>
     </row>
@@ -2198,7 +2252,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN83"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2231,7 +2285,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -3175,7 +3229,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -3190,13 +3244,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3235,17 +3289,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3257,7 +3311,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3280,7 +3334,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3302,16 +3356,16 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3361,7 +3415,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3370,19 +3424,19 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3393,7 +3447,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3419,10 +3473,10 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3473,7 +3527,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3494,7 +3548,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3505,7 +3559,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3528,13 +3582,13 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3573,19 +3627,19 @@
         <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3597,7 +3651,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3617,7 +3671,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3643,13 +3697,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3657,7 +3711,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3699,7 +3753,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3731,7 +3785,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3754,13 +3808,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3787,10 +3841,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3799,17 +3853,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3841,10 +3895,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3866,13 +3920,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3899,11 +3953,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -3921,7 +3975,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3956,7 +4010,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -3978,13 +4032,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4035,7 +4089,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -4044,10 +4098,10 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>79</v>
@@ -4070,7 +4124,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4092,13 +4146,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4149,7 +4203,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4158,10 +4212,10 @@
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4184,14 +4238,14 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
@@ -4206,17 +4260,15 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4265,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4274,10 +4326,10 @@
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4295,32 +4347,34 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>187</v>
@@ -4328,12 +4382,8 @@
       <c r="L19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4381,7 +4431,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4390,10 +4440,10 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>79</v>
@@ -4402,7 +4452,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4411,11 +4461,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4424,7 +4476,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4433,20 +4485,18 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
@@ -4483,17 +4533,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4502,65 +4554,63 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" t="s" s="2">
         <v>196</v>
       </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4609,7 +4659,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4618,32 +4668,34 @@
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4655,7 +4707,7 @@
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4664,13 +4716,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4721,19 +4773,19 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>79</v>
@@ -4742,7 +4794,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4751,23 +4803,25 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="C23" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4776,17 +4830,15 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4823,19 +4875,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4844,10 +4896,10 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4856,7 +4908,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4867,18 +4919,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>79</v>
@@ -4887,22 +4939,22 @@
         <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4927,13 +4979,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4951,28 +5003,28 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4983,7 +5035,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4994,10 +5046,10 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5006,20 +5058,18 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5043,37 +5093,35 @@
         <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -5082,32 +5130,34 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
@@ -5122,32 +5172,30 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -5183,13 +5231,13 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
@@ -5198,24 +5246,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5223,7 +5271,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>87</v>
@@ -5235,20 +5283,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5261,7 +5307,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -5297,7 +5343,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5309,16 +5355,16 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5329,18 +5375,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5349,18 +5395,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5397,40 +5445,40 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5441,7 +5489,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5458,24 +5506,26 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5499,13 +5549,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5523,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5541,10 +5591,10 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5555,7 +5605,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5566,7 +5616,7 @@
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5578,18 +5628,20 @@
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5613,13 +5665,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5637,13 +5689,13 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
@@ -5652,13 +5704,13 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5669,7 +5721,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5677,10 +5729,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5695,27 +5747,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5751,13 +5805,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5766,13 +5820,13 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5783,18 +5837,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -5806,15 +5860,17 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5827,7 +5883,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5863,13 +5919,13 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
@@ -5878,13 +5934,13 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5895,18 +5951,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -5918,13 +5974,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5975,13 +6031,13 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -5990,13 +6046,13 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6005,13 +6061,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6021,7 +6077,7 @@
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6030,20 +6086,18 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6091,7 +6145,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6106,13 +6160,13 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6121,9 +6175,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6131,31 +6185,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>107</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6181,13 +6235,13 @@
         <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>79</v>
@@ -6205,13 +6259,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6220,24 +6274,24 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6245,31 +6299,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6295,13 +6349,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -6319,13 +6373,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6334,16 +6388,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6351,18 +6405,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -6374,20 +6428,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6411,11 +6461,13 @@
         <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>79</v>
@@ -6433,7 +6485,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6448,16 +6500,16 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6465,18 +6517,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6485,16 +6537,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>148</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>149</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6545,28 +6597,28 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6575,43 +6627,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>186</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6647,40 +6701,40 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6689,9 +6743,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6699,35 +6753,33 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6751,13 +6803,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6775,13 +6827,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6790,24 +6842,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6815,30 +6867,32 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6863,13 +6917,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6887,10 +6941,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>150</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6899,61 +6953,63 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>151</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>208</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6977,31 +7033,29 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7013,19 +7067,19 @@
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>151</v>
+        <v>344</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7033,7 +7087,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7053,29 +7107,25 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
@@ -7117,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7129,16 +7179,16 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7149,18 +7199,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7169,19 +7219,19 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
+        <v>208</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7219,40 +7269,40 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7263,7 +7313,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7274,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7286,24 +7336,26 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>107</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
@@ -7345,13 +7397,13 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
@@ -7363,10 +7415,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7377,7 +7429,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7397,21 +7449,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7459,7 +7509,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7471,16 +7521,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7491,18 +7541,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7511,23 +7561,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7563,40 +7611,40 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>378</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7607,7 +7655,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7630,26 +7678,26 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7691,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7709,10 +7757,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7723,7 +7771,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7746,22 +7794,22 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P49" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7781,13 +7829,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7805,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7820,16 +7868,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7837,7 +7885,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7854,34 +7902,30 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>371</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P50" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7923,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7938,13 +7982,13 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7953,23 +7997,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7978,18 +8022,18 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8013,11 +8057,13 @@
         <v>79</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X51" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y51" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>79</v>
@@ -8035,7 +8081,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8050,24 +8096,24 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8087,19 +8133,23 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8147,7 +8197,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>150</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8159,16 +8209,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8179,18 +8229,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -8199,21 +8249,23 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>207</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>208</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8249,40 +8301,40 @@
         <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>154</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>151</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8293,7 +8345,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8304,7 +8356,7 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>79</v>
@@ -8316,24 +8368,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>329</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8353,13 +8403,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8377,13 +8427,13 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
@@ -8392,16 +8442,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>336</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8409,7 +8459,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8426,26 +8476,32 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>148</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8489,7 +8545,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8501,16 +8557,16 @@
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>151</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8519,41 +8575,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>208</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>189</v>
+        <v>428</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8579,63 +8635,61 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>154</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>151</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8655,23 +8709,19 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8719,7 +8769,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>345</v>
+        <v>151</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8731,16 +8781,16 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8751,18 +8801,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8771,19 +8821,19 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>349</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>351</v>
+        <v>208</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8821,40 +8871,40 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>352</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8865,7 +8915,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8876,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8888,24 +8938,26 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>107</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>79</v>
@@ -8947,13 +8999,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -8965,10 +9017,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8979,7 +9031,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8999,21 +9051,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>150</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9061,7 +9111,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>367</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9073,16 +9123,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9093,18 +9143,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9113,23 +9163,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9165,40 +9213,40 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9209,7 +9257,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9232,19 +9280,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9293,7 +9341,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9311,10 +9359,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9323,23 +9371,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F63" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9348,16 +9396,16 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9383,11 +9431,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9405,16 +9455,16 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9423,21 +9473,21 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9460,24 +9510,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>437</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>376</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>440</v>
+        <v>377</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9519,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9537,10 +9587,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9549,9 +9599,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9559,13 +9609,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9574,16 +9624,18 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9631,10 +9683,10 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9646,28 +9698,28 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9686,16 +9738,20 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9743,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9758,28 +9814,28 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>458</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9789,7 +9845,7 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9798,16 +9854,20 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>463</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9855,7 +9915,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9870,35 +9930,35 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>88</v>
@@ -9910,15 +9970,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>472</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -9943,13 +10005,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9967,16 +10027,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -9985,25 +10045,25 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10013,7 +10073,7 @@
         <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10022,16 +10082,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10079,7 +10141,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10094,28 +10156,28 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10134,17 +10196,15 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10193,10 +10253,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10208,28 +10268,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>499</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10239,7 +10299,7 @@
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10248,17 +10308,15 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>162</v>
+        <v>472</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10283,13 +10341,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10307,7 +10365,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10322,35 +10380,35 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -10362,17 +10420,15 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10421,13 +10477,13 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>79</v>
@@ -10436,24 +10492,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>517</v>
+        <v>485</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>518</v>
+        <v>486</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>519</v>
+        <v>487</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10464,10 +10520,10 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10476,13 +10532,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>162</v>
+        <v>491</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10509,13 +10565,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10533,13 +10589,13 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -10554,32 +10610,32 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10588,13 +10644,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10645,13 +10701,13 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>79</v>
@@ -10660,35 +10716,35 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>88</v>
@@ -10700,16 +10756,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>162</v>
+        <v>510</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10735,13 +10791,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10759,13 +10815,13 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
@@ -10774,38 +10830,38 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>79</v>
+        <v>518</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10814,16 +10870,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>541</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10849,13 +10905,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10873,13 +10929,13 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
@@ -10888,55 +10944,57 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -10985,7 +11043,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11000,28 +11058,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11031,26 +11089,24 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>557</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11075,13 +11131,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11099,7 +11155,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11114,16 +11170,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>562</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11131,7 +11187,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11154,17 +11210,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11213,7 +11267,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11231,13 +11285,13 @@
         <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>569</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11245,18 +11299,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11268,20 +11322,18 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11305,13 +11357,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11329,7 +11381,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11344,24 +11396,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11375,24 +11427,26 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J81" t="s" s="2">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>48</v>
+        <v>561</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11441,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11456,24 +11510,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>435</v>
+        <v>565</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>586</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11484,25 +11538,25 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>568</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11553,13 +11607,13 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>79</v>
@@ -11568,13 +11622,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>571</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>435</v>
+        <v>572</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11583,13 +11637,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11599,7 +11653,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11608,16 +11662,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11667,7 +11721,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11682,23 +11736,591 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X85" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="Y85" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AK88" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AL88" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN83">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11708,7 +12330,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -654,6 +654,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2252,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4917,45 +4924,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5012,7 +5017,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5024,7 +5029,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5035,11 +5040,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5049,27 +5054,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5105,17 +5112,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5127,31 +5136,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5160,10 +5167,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5172,16 +5179,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5219,19 +5226,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5246,26 +5251,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5283,18 +5290,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5343,50 +5352,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5398,17 +5407,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5445,31 +5452,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5489,43 +5496,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5549,52 +5554,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5622,25 +5627,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5665,13 +5670,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5689,7 +5694,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5707,10 +5712,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5721,7 +5726,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5729,7 +5734,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5744,32 +5749,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5781,13 +5786,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5805,7 +5810,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5823,10 +5828,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5837,7 +5842,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5860,30 +5865,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5919,7 +5926,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5937,10 +5944,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5951,7 +5958,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5959,7 +5966,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5974,15 +5981,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5995,7 +6004,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6031,7 +6040,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6049,10 +6058,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6063,7 +6072,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6086,17 +6095,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6145,7 +6152,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6163,10 +6170,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6177,7 +6184,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6188,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6200,16 +6207,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6259,13 +6266,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6274,13 +6281,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6291,7 +6298,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6314,16 +6321,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6373,7 +6380,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6388,13 +6395,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6403,13 +6410,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6419,7 +6426,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6428,15 +6435,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6485,7 +6494,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6500,13 +6509,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6515,13 +6524,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6531,7 +6540,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6540,13 +6549,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6597,7 +6606,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6612,13 +6621,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6627,23 +6636,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6652,20 +6661,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6713,13 +6718,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6728,13 +6733,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6745,15 +6750,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6762,24 +6767,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6803,13 +6810,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6827,10 +6834,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6842,24 +6849,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6885,13 +6892,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6917,13 +6924,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6941,7 +6948,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6956,24 +6963,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6990,26 +6997,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7033,11 +7038,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7055,13 +7062,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7070,24 +7077,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7095,31 +7102,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7143,13 +7154,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7167,31 +7176,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7199,18 +7208,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7222,17 +7231,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7269,31 +7276,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7313,11 +7320,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7333,23 +7340,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7385,19 +7390,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7409,16 +7414,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7429,7 +7434,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7440,7 +7445,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7449,19 +7454,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7509,28 +7518,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7541,18 +7550,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7564,17 +7573,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7611,31 +7618,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7655,18 +7662,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7675,29 +7682,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7727,40 +7732,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7771,7 +7776,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7794,24 +7799,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7853,7 +7860,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7871,10 +7878,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7885,7 +7892,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7908,24 +7915,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7967,7 +7974,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7985,10 +7992,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7999,7 +8006,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8022,24 +8029,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8081,7 +8088,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8099,10 +8106,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8113,7 +8120,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8136,19 +8143,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8197,7 +8202,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8215,10 +8220,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8229,7 +8234,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8252,19 +8257,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8313,7 +8318,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8331,10 +8336,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8345,7 +8350,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8368,22 +8373,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8403,13 +8410,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8434,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8442,16 +8449,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8459,7 +8466,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8476,31 +8483,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8521,13 +8524,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8545,7 +8548,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8560,62 +8563,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8635,11 +8642,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8657,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8672,55 +8681,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8745,13 +8756,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8769,7 +8778,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8781,38 +8790,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8824,17 +8833,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8871,31 +8878,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8915,11 +8922,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8935,23 +8942,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>228</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8987,19 +8992,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9011,16 +9016,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9031,7 +9036,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9042,7 +9047,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9051,19 +9056,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9111,28 +9120,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>357</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9143,18 +9152,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9166,17 +9175,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9213,31 +9220,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9257,18 +9264,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9277,23 +9284,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>228</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9329,40 +9334,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9373,7 +9378,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9396,18 +9401,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9455,7 +9462,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9473,10 +9480,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9487,7 +9494,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9510,24 +9517,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9569,7 +9576,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9587,10 +9594,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9624,24 +9631,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9683,7 +9690,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9701,10 +9708,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9715,7 +9722,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9738,19 +9745,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9799,7 +9804,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9817,10 +9822,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9831,7 +9836,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9854,19 +9859,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9915,7 +9920,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9933,10 +9938,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9945,23 +9950,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9970,18 +9975,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10005,11 +10012,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10027,16 +10036,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10045,35 +10054,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10082,18 +10091,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>456</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10117,13 +10126,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10141,16 +10148,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10159,21 +10166,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10181,13 +10188,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10196,16 +10203,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10253,10 +10262,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10268,38 +10277,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10308,13 +10317,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10365,10 +10374,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10380,28 +10389,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10411,7 +10420,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10420,13 +10429,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10477,7 +10486,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10492,28 +10501,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10532,13 +10541,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10565,13 +10574,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10589,7 +10598,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10604,32 +10613,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10644,13 +10653,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10677,13 +10686,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10701,7 +10710,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10716,28 +10725,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10756,17 +10765,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10815,7 +10822,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10830,35 +10837,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10870,16 +10877,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10905,13 +10912,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10929,7 +10936,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10944,28 +10951,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10984,16 +10991,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>532</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11019,13 +11026,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11043,13 +11050,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11058,38 +11065,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>533</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11098,15 +11105,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>534</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>536</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11131,13 +11140,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11155,7 +11164,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11170,16 +11179,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11187,7 +11196,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11210,13 +11219,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>546</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11243,13 +11252,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11267,7 +11276,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11288,18 +11297,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11307,13 +11316,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11322,17 +11331,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11357,13 +11364,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11381,7 +11388,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11396,24 +11403,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11421,13 +11428,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11436,16 +11443,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11471,13 +11478,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11495,7 +11502,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11510,16 +11517,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11527,7 +11534,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11547,18 +11554,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11607,7 +11616,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11622,28 +11631,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11653,7 +11662,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11662,17 +11671,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>579</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11721,7 +11728,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11736,13 +11743,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11751,13 +11758,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11767,25 +11774,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11835,7 +11842,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11850,13 +11857,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>582</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11865,13 +11872,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>591</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11881,7 +11888,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11890,20 +11897,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>586</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11927,13 +11932,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11951,7 +11956,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11969,25 +11974,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12003,19 +12008,23 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>601</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>48</v>
+        <v>594</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>597</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12039,13 +12048,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12063,7 +12072,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12078,24 +12087,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>454</v>
+        <v>590</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12106,7 +12115,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12115,16 +12124,16 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>603</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>607</v>
+        <v>48</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12175,13 +12184,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12190,24 +12199,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>79</v>
+        <v>605</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12218,29 +12227,27 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>611</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12289,13 +12296,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12304,23 +12311,137 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="M89" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12330,7 +12451,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="617">
   <si>
     <t>Property</t>
   </si>
@@ -610,7 +610,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -654,13 +654,6 @@
   </si>
   <si>
     <t>BeTaskReference</t>
-  </si>
-  <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
-</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2259,7 +2252,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN89"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4924,43 +4917,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5017,7 +5012,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5029,7 +5024,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5040,11 +5035,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5054,29 +5049,27 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5112,19 +5105,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5136,29 +5127,31 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5167,10 +5160,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5179,16 +5172,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5226,17 +5219,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5251,28 +5246,26 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>224</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5290,20 +5283,18 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5352,50 +5343,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5407,15 +5398,17 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5452,31 +5445,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5496,41 +5489,43 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5554,52 +5549,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5610,7 +5605,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5627,25 +5622,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5670,13 +5665,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5694,7 +5689,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5712,10 +5707,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5726,7 +5721,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5734,7 +5729,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5749,32 +5744,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5786,13 +5781,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5810,7 +5805,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5828,10 +5823,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5842,7 +5837,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5865,32 +5860,30 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5926,7 +5919,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5944,10 +5937,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5958,7 +5951,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5966,7 +5959,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -5981,17 +5974,15 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6004,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6040,7 +6031,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6058,10 +6049,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6072,7 +6063,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6095,15 +6086,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6152,7 +6145,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6170,10 +6163,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6184,7 +6177,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6195,7 +6188,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6207,16 +6200,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6266,13 +6259,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6281,13 +6274,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6298,7 +6291,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6321,16 +6314,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6380,7 +6373,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6395,13 +6388,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6410,13 +6403,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6426,7 +6419,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6435,17 +6428,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6494,7 +6485,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6509,13 +6500,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6524,13 +6515,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6540,7 +6531,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6549,13 +6540,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6606,7 +6597,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6621,13 +6612,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6636,23 +6627,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6661,16 +6652,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6718,13 +6713,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6733,13 +6728,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6750,15 +6745,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6767,26 +6762,24 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6810,13 +6803,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6834,10 +6827,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6849,24 +6842,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6892,13 +6885,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6924,13 +6917,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6948,7 +6941,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6963,24 +6956,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6997,24 +6990,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7038,13 +7033,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7062,13 +7055,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7077,24 +7070,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7102,35 +7095,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7154,11 +7143,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7176,31 +7167,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>346</v>
+        <v>152</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7208,18 +7199,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7231,15 +7222,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7276,31 +7269,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7320,11 +7313,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7340,21 +7333,23 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7390,19 +7385,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7414,16 +7409,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7434,7 +7429,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7445,7 +7440,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7454,23 +7449,19 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7518,28 +7509,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7550,18 +7541,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7573,15 +7564,17 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7618,31 +7611,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7662,18 +7655,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7682,27 +7675,29 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7732,40 +7727,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7776,7 +7771,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7799,26 +7794,24 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7853,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7878,10 +7871,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7892,7 +7885,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7915,24 +7908,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7974,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7992,10 +7985,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8006,7 +7999,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8029,24 +8022,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8088,7 +8081,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8106,10 +8099,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8120,7 +8113,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8143,17 +8136,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8202,7 +8197,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8220,10 +8215,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8234,7 +8229,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8257,19 +8252,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8318,7 +8313,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8336,10 +8331,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8350,7 +8345,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8373,24 +8368,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8410,13 +8403,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8434,7 +8427,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8449,16 +8442,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8466,7 +8459,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8483,27 +8476,31 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8524,13 +8521,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8548,7 +8545,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8563,66 +8560,62 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8642,13 +8635,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8666,7 +8657,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8681,57 +8672,55 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8756,11 +8745,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8778,7 +8769,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>151</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8790,38 +8781,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>434</v>
+        <v>152</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8833,15 +8824,17 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8878,31 +8871,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8922,11 +8915,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8942,21 +8935,23 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8992,19 +8987,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9016,16 +9011,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9036,7 +9031,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9047,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9056,23 +9051,19 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9120,28 +9111,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>355</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9152,18 +9143,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9175,15 +9166,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9220,31 +9213,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9264,18 +9257,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9284,21 +9277,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9334,40 +9329,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9378,7 +9373,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9401,20 +9396,18 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9462,7 +9455,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9480,10 +9473,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9494,7 +9487,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9517,24 +9510,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9576,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9594,10 +9587,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9631,24 +9624,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9690,7 +9683,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9708,10 +9701,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9722,7 +9715,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9745,17 +9738,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="N66" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9804,7 +9799,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9822,10 +9817,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9836,7 +9831,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9859,19 +9854,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9920,7 +9915,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9938,10 +9933,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9950,23 +9945,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9975,20 +9970,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10012,13 +10005,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10036,16 +10027,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10054,35 +10045,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>450</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10091,18 +10082,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>456</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10126,11 +10117,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10148,16 +10141,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10166,21 +10159,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10188,13 +10181,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10203,18 +10196,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>461</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10262,10 +10253,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10277,38 +10268,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10317,13 +10308,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10374,10 +10365,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10389,28 +10380,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10420,7 +10411,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10429,13 +10420,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10486,7 +10477,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10501,28 +10492,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10541,13 +10532,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10574,13 +10565,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10598,7 +10589,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10613,32 +10604,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10653,13 +10644,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10686,13 +10677,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10710,7 +10701,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10725,28 +10716,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>503</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10765,15 +10756,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10822,7 +10815,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10837,35 +10830,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10877,16 +10870,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10912,13 +10905,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>524</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10936,7 +10929,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10951,28 +10944,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>520</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10991,16 +10984,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>532</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11026,13 +11019,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11050,13 +11043,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11065,38 +11058,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>531</v>
-      </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11105,17 +11098,15 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>534</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11140,13 +11131,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11164,7 +11155,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11179,16 +11170,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11196,7 +11187,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11219,13 +11210,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>546</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11252,31 +11243,31 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11297,18 +11288,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11316,13 +11307,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11331,15 +11322,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11364,13 +11357,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11388,7 +11381,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11403,24 +11396,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11428,13 +11421,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11443,16 +11436,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>560</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11478,13 +11471,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11502,7 +11495,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11517,16 +11510,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11534,7 +11527,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11554,20 +11547,18 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11616,7 +11607,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11631,28 +11622,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11662,7 +11653,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11671,15 +11662,17 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11728,7 +11721,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11743,13 +11736,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11758,13 +11751,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>577</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11774,25 +11767,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11842,7 +11835,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11857,13 +11850,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11872,13 +11865,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11888,7 +11881,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11897,18 +11890,20 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>586</v>
+        <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11932,13 +11927,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11956,7 +11951,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11974,25 +11969,25 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12008,23 +12003,19 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>601</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>594</v>
+        <v>48</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>597</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12048,13 +12039,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12072,7 +12063,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12087,24 +12078,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>603</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>590</v>
+        <v>454</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12115,7 +12106,7 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12124,16 +12115,16 @@
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>603</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>48</v>
+        <v>607</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12184,13 +12175,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12199,24 +12190,24 @@
         <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12227,27 +12218,29 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>611</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12296,13 +12289,13 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
@@ -12311,137 +12304,23 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>615</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>456</v>
+        <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN89">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12451,7 +12330,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="625">
   <si>
     <t>Property</t>
   </si>
@@ -1880,6 +1880,31 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.extension</t>
+  </si>
+  <si>
+    <t>bodyLaterality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
+</t>
+  </si>
+  <si>
+    <t>BeExtLaterality</t>
+  </si>
+  <si>
+    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.coding</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2252,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN88"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11981,7 +12006,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
         <v>600</v>
       </c>
@@ -11994,10 +12019,10 @@
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12006,13 +12031,13 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>601</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>602</v>
+        <v>150</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12063,70 +12088,72 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>600</v>
+        <v>151</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>604</v>
+        <v>152</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>605</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>607</v>
+        <v>226</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12163,40 +12190,40 @@
         <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>606</v>
+        <v>155</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>609</v>
+        <v>152</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12207,9 +12234,11 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B88" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>602</v>
+      </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12218,7 +12247,7 @@
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12230,17 +12259,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12289,7 +12316,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>610</v>
+        <v>155</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12301,26 +12328,596 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AJ89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="AK88" t="s" s="2">
+      <c r="L92" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AL93" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN88">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12330,7 +12927,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -558,14 +558,17 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>informParty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
+    <t>feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
 </t>
   </si>
   <si>
-    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
+    <t>Give feedback to the prescriber</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -4045,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4063,7 +4066,7 @@
         <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4135,7 +4138,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4149,7 +4152,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>79</v>
@@ -4171,13 +4174,13 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4263,7 +4266,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
@@ -4285,13 +4288,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4377,7 +4380,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>79</v>
@@ -4399,13 +4402,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4491,7 +4494,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>79</v>
@@ -4513,13 +4516,13 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4605,7 +4608,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>79</v>
@@ -4627,13 +4630,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4719,7 +4722,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>79</v>
@@ -4741,13 +4744,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4833,7 +4836,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>79</v>
@@ -4855,13 +4858,13 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4944,11 +4947,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4970,16 +4973,16 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -5028,7 +5031,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5060,7 +5063,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5083,16 +5086,16 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5130,7 +5133,7 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -5140,7 +5143,7 @@
         <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5155,27 +5158,27 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5197,16 +5200,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5256,7 +5259,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5271,24 +5274,24 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5400,11 +5403,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5426,13 +5429,13 @@
         <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5514,7 +5517,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5540,16 +5543,16 @@
         <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5574,13 +5577,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5598,7 +5601,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5619,7 +5622,7 @@
         <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5630,7 +5633,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5656,16 +5659,16 @@
         <v>163</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5693,10 +5696,10 @@
         <v>172</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5714,7 +5717,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5732,10 +5735,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5746,7 +5749,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5772,29 +5775,29 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5830,7 +5833,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5848,10 +5851,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5862,7 +5865,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5888,13 +5891,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5908,7 +5911,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5944,7 +5947,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5962,10 +5965,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5976,7 +5979,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5999,13 +6002,13 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6056,7 +6059,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6074,10 +6077,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6088,7 +6091,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6111,16 +6114,16 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6170,7 +6173,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6188,10 +6191,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6202,7 +6205,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6225,16 +6228,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6284,7 +6287,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6299,13 +6302,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6316,7 +6319,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6342,13 +6345,13 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6398,7 +6401,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6413,13 +6416,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6430,11 +6433,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6453,13 +6456,13 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6510,7 +6513,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6525,13 +6528,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6542,11 +6545,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6565,13 +6568,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6622,7 +6625,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6637,13 +6640,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6654,11 +6657,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6677,19 +6680,19 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6738,7 +6741,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6753,13 +6756,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6770,7 +6773,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6796,13 +6799,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6828,13 +6831,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6852,7 +6855,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>87</v>
@@ -6867,24 +6870,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6910,13 +6913,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6942,13 +6945,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6966,7 +6969,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6981,16 +6984,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6998,7 +7001,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7024,16 +7027,16 @@
         <v>163</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7062,7 +7065,7 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7080,7 +7083,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7098,13 +7101,13 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7112,7 +7115,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7224,11 +7227,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7250,13 +7253,13 @@
         <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7338,7 +7341,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7361,19 +7364,19 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7422,7 +7425,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7440,10 +7443,10 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7454,7 +7457,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7566,11 +7569,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7592,13 +7595,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7680,7 +7683,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7706,23 +7709,23 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7764,7 +7767,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7782,10 +7785,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7796,7 +7799,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7822,13 +7825,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7878,7 +7881,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7896,10 +7899,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7910,7 +7913,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7936,21 +7939,21 @@
         <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7992,7 +7995,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8010,10 +8013,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8024,7 +8027,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8050,14 +8053,14 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8106,7 +8109,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8124,10 +8127,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8138,7 +8141,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8161,19 +8164,19 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8222,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8240,10 +8243,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8254,7 +8257,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8280,16 +8283,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8338,7 +8341,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8356,10 +8359,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8396,10 +8399,10 @@
         <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8407,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
@@ -8428,13 +8431,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8452,7 +8455,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8467,16 +8470,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8484,7 +8487,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8507,70 +8510,70 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Q55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8585,13 +8588,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8602,11 +8605,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8628,13 +8631,13 @@
         <v>163</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8660,11 +8663,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8682,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8697,24 +8700,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8826,11 +8829,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8852,13 +8855,13 @@
         <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8940,7 +8943,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8963,19 +8966,19 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9024,7 +9027,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9042,10 +9045,10 @@
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9168,11 +9171,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9194,13 +9197,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9282,7 +9285,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9308,16 +9311,16 @@
         <v>101</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9366,7 +9369,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9384,10 +9387,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9424,13 +9427,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9480,7 +9483,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9498,10 +9501,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9512,7 +9515,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9538,21 +9541,21 @@
         <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9594,7 +9597,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9612,10 +9615,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9626,7 +9629,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9652,14 +9655,14 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9708,7 +9711,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9726,10 +9729,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9740,7 +9743,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9763,19 +9766,19 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9824,7 +9827,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9842,10 +9845,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9856,7 +9859,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9882,16 +9885,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9940,7 +9943,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9958,10 +9961,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9972,11 +9975,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9998,13 +10001,13 @@
         <v>163</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10030,11 +10033,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10052,7 +10055,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10061,7 +10064,7 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10070,21 +10073,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10107,17 +10110,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10166,7 +10169,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10184,10 +10187,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10198,7 +10201,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10221,13 +10224,13 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10278,7 +10281,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>87</v>
@@ -10293,28 +10296,28 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10333,13 +10336,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10390,7 +10393,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10405,28 +10408,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10445,13 +10448,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10502,7 +10505,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10517,24 +10520,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10557,13 +10560,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10593,10 +10596,10 @@
         <v>166</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10614,7 +10617,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10635,22 +10638,22 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10669,13 +10672,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10726,7 +10729,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10741,28 +10744,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10781,16 +10784,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10840,7 +10843,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10855,28 +10858,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10898,13 +10901,13 @@
         <v>163</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10933,10 +10936,10 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10954,7 +10957,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10969,16 +10972,16 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -10986,11 +10989,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11009,16 +11012,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11068,7 +11071,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11083,16 +11086,16 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11100,7 +11103,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11126,10 +11129,10 @@
         <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11159,10 +11162,10 @@
         <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11180,7 +11183,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11201,10 +11204,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11212,7 +11215,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11235,13 +11238,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11292,7 +11295,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11313,10 +11316,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11324,7 +11327,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11350,13 +11353,13 @@
         <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11385,10 +11388,10 @@
         <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11406,7 +11409,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11421,16 +11424,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11461,16 +11464,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11520,7 +11523,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11535,16 +11538,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11552,7 +11555,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11575,13 +11578,13 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11632,7 +11635,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11647,13 +11650,13 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11664,11 +11667,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11687,16 +11690,16 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11746,7 +11749,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11761,13 +11764,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11778,7 +11781,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11801,16 +11804,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11860,7 +11863,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11878,10 +11881,10 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11892,11 +11895,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11918,16 +11921,16 @@
         <v>163</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11955,10 +11958,10 @@
         <v>166</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11976,7 +11979,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11994,21 +11997,21 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12120,11 +12123,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12146,13 +12149,13 @@
         <v>133</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12234,10 +12237,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>79</v>
@@ -12259,13 +12262,13 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12348,7 +12351,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12371,19 +12374,19 @@
         <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12432,7 +12435,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12450,10 +12453,10 @@
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12464,7 +12467,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12490,16 +12493,16 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12548,7 +12551,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12566,10 +12569,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12580,7 +12583,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12603,13 +12606,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12660,7 +12663,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12675,24 +12678,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12718,10 +12721,10 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12772,7 +12775,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12790,10 +12793,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12804,7 +12807,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12827,16 +12830,16 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12886,7 +12889,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12901,13 +12904,13 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -613,7 +613,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
 </t>
   </si>
   <si>
@@ -657,6 +657,13 @@
   </si>
   <si>
     <t>BeTaskReference</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2280,7 +2287,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN93"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4945,45 +4952,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5040,7 +5045,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5052,7 +5057,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5063,11 +5068,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5077,27 +5082,29 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5133,17 +5140,19 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5155,31 +5164,29 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5188,10 +5195,10 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5200,16 +5207,16 @@
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5247,19 +5254,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5274,26 +5279,28 @@
         <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5311,18 +5318,20 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5371,50 +5380,50 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -5426,17 +5435,15 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5473,31 +5480,31 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>79</v>
@@ -5517,43 +5524,41 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5577,52 +5582,52 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5633,7 +5638,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5650,25 +5655,25 @@
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5693,13 +5698,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5717,7 +5722,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5735,10 +5740,10 @@
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5754,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5757,7 +5762,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
@@ -5772,32 +5777,32 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5809,13 +5814,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5833,7 +5838,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5851,10 +5856,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5870,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5888,30 +5893,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5947,7 +5954,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5965,10 +5972,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5986,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5987,7 +5994,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6002,15 +6009,17 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6023,7 +6032,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6059,7 +6068,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6077,10 +6086,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6091,7 +6100,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6114,17 +6123,15 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6173,7 +6180,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6191,10 +6198,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6205,7 +6212,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6216,7 +6223,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6228,16 +6235,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6287,13 +6294,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6302,13 +6309,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6319,7 +6326,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6342,16 +6349,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6401,7 +6408,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6416,13 +6423,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6431,13 +6438,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6447,7 +6454,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6456,15 +6463,17 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6513,7 +6522,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6528,13 +6537,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6543,13 +6552,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6559,7 +6568,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6568,13 +6577,13 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6625,7 +6634,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6640,13 +6649,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6655,23 +6664,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6680,20 +6689,16 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6741,13 +6746,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6756,13 +6761,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6773,15 +6778,15 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
@@ -6790,24 +6795,26 @@
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6831,13 +6838,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>323</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6855,10 +6862,10 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
@@ -6870,24 +6877,24 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6913,13 +6920,13 @@
         <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6945,13 +6952,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6969,7 +6976,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>87</v>
@@ -6984,24 +6991,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7018,26 +7025,24 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7061,11 +7066,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7083,13 +7090,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7098,24 +7105,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7123,31 +7130,35 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7171,13 +7182,11 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7195,31 +7204,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7227,18 +7236,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -7250,17 +7259,15 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -7297,31 +7304,31 @@
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7341,11 +7348,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7361,23 +7368,21 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7413,19 +7418,19 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7437,16 +7442,16 @@
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7457,7 +7462,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7468,7 +7473,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7477,19 +7482,23 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7537,28 +7546,28 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7569,18 +7578,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7592,17 +7601,15 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7639,31 +7646,31 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7683,18 +7690,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7703,29 +7710,27 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7755,40 +7760,40 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7804,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7822,24 +7827,26 @@
         <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7888,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7899,10 +7906,10 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7913,7 +7920,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7936,24 +7943,24 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7995,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8013,10 +8020,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8027,7 +8034,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8050,24 +8057,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8109,7 +8116,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8127,10 +8134,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8141,7 +8148,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8164,19 +8171,17 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8225,7 +8230,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8243,10 +8248,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8257,7 +8262,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8280,19 +8285,19 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8341,7 +8346,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8359,10 +8364,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8373,7 +8378,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8396,22 +8401,24 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8431,13 +8438,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8455,7 +8462,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8470,16 +8477,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8494,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8504,31 +8511,27 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>391</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
@@ -8549,13 +8552,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8573,7 +8576,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8588,62 +8591,66 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>163</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8663,11 +8670,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8685,7 +8694,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8700,55 +8709,57 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8773,13 +8784,11 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8797,7 +8806,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>151</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8809,38 +8818,38 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
@@ -8852,17 +8861,15 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8899,31 +8906,31 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>79</v>
@@ -8943,11 +8950,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8963,23 +8970,21 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>350</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>351</v>
+        <v>230</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9015,19 +9020,19 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9039,16 +9044,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9059,7 +9064,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9070,7 +9075,7 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9079,19 +9084,23 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9139,28 +9148,28 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>358</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9171,18 +9180,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9194,17 +9203,15 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9241,31 +9248,31 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
@@ -9285,18 +9292,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9305,23 +9312,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>361</v>
+        <v>230</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9357,40 +9362,40 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>367</v>
+        <v>152</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9401,7 +9406,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9424,18 +9429,20 @@
         <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9483,7 +9490,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9501,10 +9508,10 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9515,7 +9522,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9538,24 +9545,24 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9597,7 +9604,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9615,10 +9622,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9652,24 +9659,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9711,7 +9718,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9729,10 +9736,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9743,7 +9750,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9766,19 +9773,17 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>391</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9827,7 +9832,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9845,10 +9850,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9859,7 +9864,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9882,19 +9887,19 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9943,7 +9948,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9961,10 +9966,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9973,23 +9978,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9998,18 +10003,20 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10033,11 +10040,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10055,16 +10064,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10073,35 +10082,35 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10110,18 +10119,18 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>457</v>
+        <v>163</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10145,13 +10154,11 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="X69" s="2"/>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10169,16 +10176,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10187,21 +10194,21 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10209,13 +10216,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10224,16 +10231,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>462</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10281,10 +10290,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10296,38 +10305,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10336,13 +10345,13 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10393,10 +10402,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10408,28 +10417,28 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10439,7 +10448,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10448,13 +10457,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10505,7 +10514,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10520,28 +10529,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10560,13 +10569,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10593,13 +10602,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10617,7 +10626,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10632,32 +10641,32 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
@@ -10672,13 +10681,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10705,13 +10714,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10729,7 +10738,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10744,28 +10753,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10784,17 +10793,15 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10843,7 +10850,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10858,35 +10865,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10898,16 +10905,16 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>163</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10933,13 +10940,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>525</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10957,7 +10964,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10972,28 +10979,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11012,16 +11019,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11047,13 +11054,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11071,13 +11078,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11086,38 +11093,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11126,15 +11133,17 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11159,13 +11168,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>544</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11183,7 +11192,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11198,16 +11207,16 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>539</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11215,7 +11224,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11238,13 +11247,13 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>547</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11271,13 +11280,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11295,7 +11304,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11316,18 +11325,18 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11335,13 +11344,13 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11350,17 +11359,15 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>549</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11385,13 +11392,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11409,7 +11416,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11424,24 +11431,24 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11449,13 +11456,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11464,16 +11471,16 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>561</v>
+        <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11499,13 +11506,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11523,7 +11530,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11538,16 +11545,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11555,7 +11562,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11575,18 +11582,20 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11635,7 +11644,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11650,28 +11659,28 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>79</v>
+        <v>561</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11681,7 +11690,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11690,17 +11699,15 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11749,7 +11756,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11764,13 +11771,13 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11779,13 +11786,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>79</v>
+        <v>578</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11795,25 +11802,25 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11863,7 +11870,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11878,13 +11885,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11893,13 +11900,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11909,7 +11916,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11918,20 +11925,18 @@
         <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>163</v>
+        <v>587</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11955,13 +11960,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>597</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -11979,7 +11984,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11997,53 +12002,57 @@
         <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>594</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>149</v>
+        <v>595</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>596</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12067,13 +12076,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12091,50 +12100,50 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>151</v>
+        <v>593</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>152</v>
+        <v>601</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>79</v>
@@ -12146,17 +12155,15 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12193,31 +12200,31 @@
         <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12237,20 +12244,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12262,15 +12267,17 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>604</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>605</v>
+        <v>229</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12307,16 +12314,16 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE88" t="s" s="2">
         <v>155</v>
@@ -12340,7 +12347,7 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -12351,9 +12358,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B89" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12362,7 +12371,7 @@
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12371,23 +12380,19 @@
         <v>79</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>349</v>
+        <v>606</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>350</v>
+        <v>607</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12435,7 +12440,7 @@
         <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>354</v>
+        <v>155</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
@@ -12447,16 +12452,16 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12467,7 +12472,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12478,7 +12483,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12490,19 +12495,19 @@
         <v>88</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>351</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12551,13 +12556,13 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>79</v>
@@ -12569,10 +12574,10 @@
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12581,9 +12586,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12594,28 +12599,32 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>610</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12663,13 +12672,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>609</v>
+        <v>406</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12678,24 +12687,24 @@
         <v>99</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>612</v>
+        <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>613</v>
+        <v>408</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12706,7 +12715,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -12715,16 +12724,16 @@
         <v>79</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>612</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>616</v>
+        <v>48</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12775,13 +12784,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12790,24 +12799,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>79</v>
+        <v>614</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12818,29 +12827,27 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>620</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12889,13 +12896,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12904,23 +12911,137 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="AK93" t="s" s="2">
+      <c r="M94" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AK94" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AL94" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN93">
+  <autoFilter ref="A1:AN94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12930,7 +13051,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="630">
   <si>
     <t>Property</t>
   </si>
@@ -663,6 +663,13 @@
   </si>
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+</t>
+  </si>
+  <si>
+    <t>recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
   </si>
   <si>
@@ -2287,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5066,45 +5073,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5152,7 +5157,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5161,7 +5166,7 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>139</v>
@@ -5173,7 +5178,7 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -5184,11 +5189,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5198,27 +5203,29 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5254,17 +5261,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5276,31 +5285,29 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5309,10 +5316,10 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5321,16 +5328,16 @@
         <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5368,19 +5375,17 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5395,26 +5400,28 @@
         <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5432,18 +5439,20 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5492,50 +5501,50 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5547,17 +5556,15 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5594,31 +5601,31 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>79</v>
@@ -5638,43 +5645,41 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5698,52 +5703,52 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5754,7 +5759,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5771,25 +5776,25 @@
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5814,13 +5819,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5838,7 +5843,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5856,10 +5861,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5870,7 +5875,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5878,7 +5883,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5893,32 +5898,32 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5930,13 +5935,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5954,7 +5959,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5972,10 +5977,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5986,7 +5991,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6009,30 +6014,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6068,7 +6075,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6086,10 +6093,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6100,7 +6107,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6108,7 +6115,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6123,15 +6130,17 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6144,7 +6153,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6180,7 +6189,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6198,10 +6207,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6212,7 +6221,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6235,17 +6244,15 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6294,7 +6301,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6312,10 +6319,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6326,7 +6333,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6337,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6349,16 +6356,16 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6408,13 +6415,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6423,13 +6430,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6440,7 +6447,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6463,16 +6470,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6522,7 +6529,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6537,13 +6544,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6552,13 +6559,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6568,7 +6575,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6577,15 +6584,17 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6634,7 +6643,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6649,13 +6658,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6664,13 +6673,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6680,7 +6689,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6689,13 +6698,13 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6746,7 +6755,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6761,13 +6770,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6776,23 +6785,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6801,20 +6810,16 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6862,13 +6867,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6877,13 +6882,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6894,15 +6899,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
@@ -6911,24 +6916,26 @@
         <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6952,13 +6959,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6976,10 +6983,10 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
@@ -6991,24 +6998,24 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7034,13 +7041,13 @@
         <v>107</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7066,13 +7073,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7090,7 +7097,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>87</v>
@@ -7105,24 +7112,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7139,26 +7146,24 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7182,11 +7187,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7204,13 +7211,13 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
@@ -7219,24 +7226,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7244,31 +7251,35 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7292,13 +7303,11 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7316,31 +7325,31 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>152</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7348,18 +7357,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>79</v>
@@ -7371,17 +7380,15 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7418,31 +7425,31 @@
         <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
@@ -7462,11 +7469,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7482,23 +7489,21 @@
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7534,19 +7539,19 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7558,16 +7563,16 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7578,7 +7583,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7589,7 +7594,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
@@ -7598,19 +7603,23 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7658,28 +7667,28 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7690,18 +7699,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7713,17 +7722,15 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7760,31 +7767,31 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
@@ -7804,18 +7811,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7824,29 +7831,27 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>79</v>
@@ -7876,40 +7881,40 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7920,7 +7925,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7943,24 +7948,26 @@
         <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8002,7 +8009,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8020,10 +8027,10 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8034,7 +8041,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8057,24 +8064,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8116,7 +8123,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8134,10 +8141,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8148,7 +8155,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8171,24 +8178,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8230,7 +8237,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8248,10 +8255,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8262,7 +8269,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8285,19 +8292,17 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -8346,7 +8351,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8364,10 +8369,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8378,7 +8383,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8401,19 +8406,19 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8462,7 +8467,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8480,10 +8485,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8494,7 +8499,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8517,22 +8522,24 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8552,13 +8559,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8576,7 +8583,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8591,16 +8598,16 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8608,7 +8615,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8625,31 +8632,27 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8670,13 +8673,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8694,7 +8697,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8709,62 +8712,66 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8784,11 +8791,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8806,7 +8815,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8821,55 +8830,57 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
@@ -8894,13 +8905,11 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8918,7 +8927,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8930,38 +8939,38 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>79</v>
@@ -8973,17 +8982,15 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9020,31 +9027,31 @@
         <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>79</v>
@@ -9064,11 +9071,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9084,23 +9091,21 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9136,19 +9141,19 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9160,16 +9165,16 @@
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>358</v>
+        <v>152</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9180,7 +9185,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9191,7 +9196,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -9200,19 +9205,23 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9260,28 +9269,28 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9292,18 +9301,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9315,17 +9324,15 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9362,31 +9369,31 @@
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9406,18 +9413,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9426,23 +9433,21 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>231</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9478,40 +9483,40 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>367</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>369</v>
+        <v>152</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9522,7 +9527,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9545,18 +9550,20 @@
         <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9604,7 +9611,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9622,10 +9629,10 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9636,7 +9643,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9659,24 +9666,24 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>79</v>
@@ -9718,7 +9725,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9736,10 +9743,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9773,24 +9780,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9832,7 +9839,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9850,10 +9857,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9864,7 +9871,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9887,19 +9894,17 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>393</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9948,7 +9953,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9966,10 +9971,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9980,7 +9985,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10003,19 +10008,19 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>395</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10064,7 +10069,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10082,10 +10087,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10094,23 +10099,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10119,18 +10124,20 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10154,11 +10161,13 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="X69" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y69" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>79</v>
@@ -10176,16 +10185,16 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10194,35 +10203,35 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10231,18 +10240,18 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>459</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10266,13 +10275,11 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10290,16 +10297,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10308,21 +10315,21 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10330,13 +10337,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10345,16 +10352,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10402,10 +10411,10 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>87</v>
@@ -10417,38 +10426,38 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10457,13 +10466,13 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10514,10 +10523,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10529,28 +10538,28 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10560,7 +10569,7 @@
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10569,13 +10578,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10626,7 +10635,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10641,28 +10650,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10681,13 +10690,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10714,13 +10723,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10738,7 +10747,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10753,32 +10762,32 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10793,13 +10802,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10826,13 +10835,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10850,7 +10859,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10865,28 +10874,28 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10905,17 +10914,15 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10964,7 +10971,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10979,35 +10986,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11019,16 +11026,16 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>163</v>
+        <v>515</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11054,13 +11061,13 @@
         <v>79</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>79</v>
@@ -11078,7 +11085,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11093,28 +11100,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11133,16 +11140,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>535</v>
+        <v>163</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11168,13 +11175,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11192,13 +11199,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11207,38 +11214,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11247,15 +11254,17 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>537</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11280,13 +11289,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11304,7 +11313,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11319,16 +11328,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11336,7 +11345,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11359,13 +11368,13 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>549</v>
+        <v>163</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11392,13 +11401,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11416,7 +11425,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11437,18 +11446,18 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11456,13 +11465,13 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11471,17 +11480,15 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>551</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11506,13 +11513,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11530,7 +11537,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11545,24 +11552,24 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11570,13 +11577,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11585,16 +11592,16 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>563</v>
+        <v>163</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11620,13 +11627,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11644,7 +11651,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11659,16 +11666,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11676,7 +11683,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11696,18 +11703,20 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11756,7 +11765,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11771,28 +11780,28 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11802,7 +11811,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11811,17 +11820,15 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>582</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11870,7 +11877,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11885,13 +11892,13 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11900,13 +11907,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>580</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11916,25 +11923,25 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11984,7 +11991,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -11999,13 +12006,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12014,13 +12021,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12030,7 +12037,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12039,20 +12046,18 @@
         <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>163</v>
+        <v>589</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12076,13 +12081,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>599</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>600</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12100,7 +12105,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12118,53 +12123,57 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>79</v>
+        <v>596</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>597</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12188,13 +12197,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12212,50 +12221,50 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>151</v>
+        <v>595</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>152</v>
+        <v>603</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -12267,17 +12276,15 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12314,31 +12321,31 @@
         <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
@@ -12358,20 +12365,18 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12383,15 +12388,17 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>606</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>607</v>
+        <v>231</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12428,16 +12435,16 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
         <v>155</v>
@@ -12461,7 +12468,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12472,9 +12479,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12483,7 +12492,7 @@
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12492,23 +12501,19 @@
         <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>351</v>
+        <v>608</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>352</v>
+        <v>609</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
       </c>
@@ -12556,7 +12561,7 @@
         <v>79</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>77</v>
@@ -12568,16 +12573,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12588,7 +12593,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12599,7 +12604,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12611,19 +12616,19 @@
         <v>88</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>353</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>79</v>
@@ -12672,13 +12677,13 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>79</v>
@@ -12690,10 +12695,10 @@
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12702,9 +12707,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12715,28 +12720,32 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>612</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>48</v>
+        <v>404</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
       </c>
@@ -12784,13 +12793,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>611</v>
+        <v>408</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12799,24 +12808,24 @@
         <v>99</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>614</v>
+        <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>615</v>
+        <v>410</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12827,7 +12836,7 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -12836,16 +12845,16 @@
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>614</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>618</v>
+        <v>48</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12896,13 +12905,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12911,24 +12920,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12939,29 +12948,27 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>622</v>
+        <v>89</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>625</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>79</v>
@@ -13010,13 +13017,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13025,23 +13032,137 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="AK94" t="s" s="2">
+      <c r="M95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL94" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AL95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13051,7 +13172,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="635">
   <si>
     <t>Property</t>
   </si>
@@ -623,6 +623,19 @@
     <t>Request must be performed before</t>
   </si>
   <si>
+    <t>latestDraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+</t>
+  </si>
+  <si>
+    <t>The prescription must have left the draft status befor this moment</t>
+  </si>
+  <si>
+    <t>Request must leave draft status before</t>
+  </si>
+  <si>
     <t>performer</t>
   </si>
   <si>
@@ -671,6 +684,9 @@
   <si>
     <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
 </t>
+  </si>
+  <si>
+    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
   </si>
   <si>
     <t>ServiceRequest.modifierExtension</t>
@@ -2294,7 +2310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4629,7 +4645,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4743,7 +4759,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
@@ -4878,7 +4894,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4964,7 +4980,7 @@
         <v>131</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>79</v>
@@ -4986,13 +5002,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5078,7 +5094,7 @@
         <v>131</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>79</v>
@@ -5100,13 +5116,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5187,45 +5203,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="C26" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5273,7 +5287,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5282,7 +5296,7 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>139</v>
@@ -5294,7 +5308,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5305,11 +5319,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5319,27 +5333,29 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5375,17 +5391,19 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AB27" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5397,31 +5415,29 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5430,10 +5446,10 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5442,16 +5458,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5489,19 +5505,17 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5516,26 +5530,28 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5553,18 +5569,20 @@
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5613,50 +5631,50 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
@@ -5668,17 +5686,15 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5715,31 +5731,31 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
@@ -5759,43 +5775,41 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5819,52 +5833,52 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5875,7 +5889,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5892,25 +5906,25 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5935,13 +5949,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5959,7 +5973,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5977,10 +5991,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5991,7 +6005,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5999,7 +6013,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
@@ -6014,32 +6028,32 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -6051,13 +6065,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6075,7 +6089,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6093,10 +6107,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6107,7 +6121,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6130,30 +6144,32 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6189,7 +6205,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6207,10 +6223,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6221,7 +6237,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6229,7 +6245,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
@@ -6244,15 +6260,17 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -6265,7 +6283,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6301,7 +6319,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6319,10 +6337,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6333,7 +6351,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6356,17 +6374,15 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6415,7 +6431,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6433,10 +6449,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6447,7 +6463,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6458,7 +6474,7 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6470,16 +6486,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6529,13 +6545,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6544,13 +6560,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6561,7 +6577,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6584,16 +6600,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6643,7 +6659,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6658,13 +6674,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6673,13 +6689,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>297</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6689,7 +6705,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6698,15 +6714,17 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
@@ -6770,28 +6788,28 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6801,7 +6819,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6810,13 +6828,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6867,7 +6885,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6882,38 +6900,38 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6922,20 +6940,16 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6983,13 +6997,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -6998,13 +7012,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7015,15 +7029,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7032,24 +7046,26 @@
         <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7073,13 +7089,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7097,10 +7113,10 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>87</v>
@@ -7112,24 +7128,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7155,13 +7171,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7187,13 +7203,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7211,7 +7227,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7226,24 +7242,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7260,26 +7276,24 @@
         <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7303,11 +7317,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7325,13 +7341,13 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
@@ -7340,24 +7356,24 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7365,31 +7381,35 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7413,13 +7433,11 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7437,31 +7455,31 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7469,18 +7487,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7492,17 +7510,15 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7539,31 +7555,31 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>79</v>
@@ -7583,11 +7599,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7603,23 +7619,21 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7655,19 +7669,19 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7679,16 +7693,16 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7699,7 +7713,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7710,7 +7724,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7719,19 +7733,23 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7779,28 +7797,28 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7811,18 +7829,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
@@ -7834,17 +7852,15 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7881,31 +7897,31 @@
         <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
@@ -7925,18 +7941,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7945,29 +7961,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -7997,40 +8011,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8041,7 +8055,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8064,24 +8078,26 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8123,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8141,10 +8157,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8155,7 +8171,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8178,24 +8194,24 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -8237,7 +8253,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8255,10 +8271,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8269,7 +8285,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8292,24 +8308,24 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8351,7 +8367,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8369,10 +8385,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8383,7 +8399,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8406,19 +8422,17 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8467,7 +8481,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8485,10 +8499,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8499,7 +8513,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8522,19 +8536,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8583,7 +8597,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8601,10 +8615,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8615,7 +8629,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8638,66 +8652,68 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8712,16 +8728,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8729,7 +8745,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8746,31 +8762,27 @@
         <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8791,13 +8803,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8815,7 +8827,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8830,62 +8842,66 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>163</v>
+        <v>400</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8905,11 +8921,13 @@
         <v>79</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8927,7 +8945,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8942,55 +8960,57 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9015,13 +9035,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9039,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>151</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9051,38 +9069,38 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -9094,17 +9112,15 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9141,31 +9157,31 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>79</v>
@@ -9185,11 +9201,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9205,23 +9221,21 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9257,19 +9271,19 @@
         <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9281,16 +9295,16 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9301,7 +9315,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9312,7 +9326,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9321,19 +9335,23 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9381,28 +9399,28 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>152</v>
+        <v>365</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9413,18 +9431,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9436,17 +9454,15 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9483,31 +9499,31 @@
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
@@ -9527,18 +9543,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9547,23 +9563,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9599,40 +9613,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>369</v>
+        <v>155</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9643,7 +9657,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9666,18 +9680,20 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9725,7 +9741,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9743,10 +9759,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9757,7 +9773,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9780,24 +9796,24 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>79</v>
@@ -9839,7 +9855,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9857,10 +9873,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9871,7 +9887,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9894,24 +9910,24 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9953,7 +9969,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9971,10 +9987,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9985,7 +10001,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10008,19 +10024,17 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10069,7 +10083,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10087,10 +10101,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10101,7 +10115,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10124,19 +10138,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10185,7 +10199,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10203,10 +10217,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10215,23 +10229,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10240,18 +10254,20 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10275,11 +10291,13 @@
         <v>79</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="X70" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y70" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -10297,16 +10315,16 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10315,35 +10333,35 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10352,18 +10370,18 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>464</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10387,13 +10405,11 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10411,16 +10427,16 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10429,21 +10445,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10451,13 +10467,13 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10466,16 +10482,18 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10523,10 +10541,10 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
@@ -10538,38 +10556,38 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10578,13 +10596,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10635,10 +10653,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10650,28 +10668,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10681,7 +10699,7 @@
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10690,13 +10708,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10747,7 +10765,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10762,28 +10780,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10802,13 +10820,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10835,13 +10853,13 @@
         <v>79</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>500</v>
+        <v>79</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>79</v>
@@ -10859,7 +10877,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10874,32 +10892,32 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>87</v>
@@ -10914,13 +10932,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10947,13 +10965,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10971,7 +10989,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -10986,28 +11004,28 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11026,17 +11044,15 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11085,7 +11101,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11100,35 +11116,35 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -11140,16 +11156,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>163</v>
+        <v>520</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11175,13 +11191,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11199,7 +11215,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11214,28 +11230,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11254,16 +11270,16 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>537</v>
+        <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11289,13 +11305,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>534</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11313,13 +11329,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11328,38 +11344,38 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11368,15 +11384,17 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>542</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>79</v>
@@ -11401,13 +11419,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>548</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11425,7 +11443,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11440,16 +11458,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11457,7 +11475,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11480,13 +11498,13 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11513,13 +11531,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11537,7 +11555,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11558,18 +11576,18 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11577,13 +11595,13 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11592,17 +11610,15 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>163</v>
+        <v>556</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M82" t="s" s="2">
         <v>557</v>
       </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11627,13 +11643,13 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>79</v>
@@ -11651,7 +11667,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11666,24 +11682,24 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>561</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11691,13 +11707,13 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11706,16 +11722,16 @@
         <v>88</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>565</v>
+        <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11741,13 +11757,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11765,7 +11781,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11780,16 +11796,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11797,7 +11813,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11817,18 +11833,20 @@
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="K84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -11877,7 +11895,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11892,28 +11910,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11923,7 +11941,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -11932,17 +11950,15 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>584</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -11991,7 +12007,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12006,13 +12022,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12021,13 +12037,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12037,25 +12053,25 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12105,7 +12121,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12120,28 +12136,28 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>596</v>
+        <v>79</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12151,7 +12167,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12160,20 +12176,18 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>163</v>
+        <v>594</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>600</v>
-      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
       </c>
@@ -12197,13 +12211,13 @@
         <v>79</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>79</v>
@@ -12221,7 +12235,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12239,53 +12253,57 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>604</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>79</v>
+        <v>601</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>602</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12309,13 +12327,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12333,50 +12351,50 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>151</v>
+        <v>600</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>152</v>
+        <v>608</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>79</v>
+        <v>609</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>79</v>
@@ -12388,17 +12406,15 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>79</v>
@@ -12435,31 +12451,31 @@
         <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>79</v>
@@ -12479,20 +12495,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>79</v>
@@ -12504,15 +12518,17 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>608</v>
+        <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>609</v>
+        <v>236</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>79</v>
@@ -12549,16 +12565,16 @@
         <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE90" t="s" s="2">
         <v>155</v>
@@ -12582,7 +12598,7 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12595,7 +12611,9 @@
       <c r="A91" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="C91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12604,7 +12622,7 @@
         <v>77</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>79</v>
@@ -12613,23 +12631,19 @@
         <v>79</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>353</v>
+        <v>613</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>354</v>
+        <v>614</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>79</v>
       </c>
@@ -12677,7 +12691,7 @@
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>77</v>
@@ -12689,16 +12703,16 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12709,7 +12723,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12720,7 +12734,7 @@
         <v>77</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>79</v>
@@ -12732,19 +12746,19 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>358</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12793,13 +12807,13 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>79</v>
@@ -12811,10 +12825,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12823,9 +12837,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12836,28 +12850,32 @@
         <v>77</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>614</v>
+        <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>48</v>
+        <v>409</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
       </c>
@@ -12905,13 +12923,13 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>79</v>
@@ -12920,24 +12938,24 @@
         <v>99</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>616</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>617</v>
+        <v>415</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>618</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12948,7 +12966,7 @@
         <v>77</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -12957,16 +12975,16 @@
         <v>79</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13017,13 +13035,13 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>79</v>
@@ -13032,10 +13050,10 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>622</v>
@@ -13044,12 +13062,12 @@
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13060,19 +13078,19 @@
         <v>77</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>624</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>625</v>
@@ -13080,9 +13098,7 @@
       <c r="L95" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>627</v>
-      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>79</v>
@@ -13131,13 +13147,13 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>79</v>
@@ -13146,23 +13162,137 @@
         <v>99</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="AK95" t="s" s="2">
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AL96" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN96">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13172,7 +13302,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI95">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -672,11 +672,17 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pps-info}
+    <t>pss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
 </t>
+  </si>
+  <si>
+    <t>BePSSInfo</t>
+  </si>
+  <si>
+    <t>Prescription Search Support Info</t>
   </si>
   <si>
     <t>recorder</t>
@@ -5119,10 +5125,10 @@
         <v>210</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5208,7 +5214,7 @@
         <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5230,10 +5236,10 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>135</v>
@@ -5319,11 +5325,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5345,16 +5351,16 @@
         <v>133</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5403,7 +5409,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5435,7 +5441,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5458,16 +5464,16 @@
         <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5505,7 +5511,7 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
@@ -5515,7 +5521,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5530,27 +5536,27 @@
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>79</v>
@@ -5572,16 +5578,16 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5631,7 +5637,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5646,24 +5652,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5775,11 +5781,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5801,13 +5807,13 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5889,7 +5895,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5915,16 +5921,16 @@
         <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5949,13 +5955,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5973,7 +5979,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5994,7 +6000,7 @@
         <v>130</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6005,7 +6011,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6031,16 +6037,16 @@
         <v>163</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6068,10 +6074,10 @@
         <v>172</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6089,7 +6095,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6107,10 +6113,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6121,7 +6127,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6147,29 +6153,29 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6205,7 +6211,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6223,10 +6229,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6237,7 +6243,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6263,13 +6269,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6283,7 +6289,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6319,7 +6325,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6337,10 +6343,10 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6351,7 +6357,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6374,13 +6380,13 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6431,7 +6437,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6449,10 +6455,10 @@
         <v>79</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6463,7 +6469,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6486,16 +6492,16 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6545,7 +6551,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6563,10 +6569,10 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6577,7 +6583,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6600,16 +6606,16 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6659,7 +6665,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6674,13 +6680,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6691,7 +6697,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6717,13 +6723,13 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6773,7 +6779,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6788,13 +6794,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6805,11 +6811,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6828,13 +6834,13 @@
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6885,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6900,13 +6906,13 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6917,11 +6923,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6940,13 +6946,13 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6997,7 +7003,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7012,13 +7018,13 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -7029,11 +7035,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -7052,19 +7058,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7113,7 +7119,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7128,13 +7134,13 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7145,7 +7151,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7171,13 +7177,13 @@
         <v>107</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7203,13 +7209,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7227,7 +7233,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>87</v>
@@ -7242,24 +7248,24 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7285,13 +7291,13 @@
         <v>107</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7317,13 +7323,13 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7347,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>87</v>
@@ -7356,16 +7362,16 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7373,7 +7379,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7399,16 +7405,16 @@
         <v>163</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7437,7 +7443,7 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7455,7 +7461,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7473,13 +7479,13 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7487,7 +7493,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7599,11 +7605,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7625,13 +7631,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7713,7 +7719,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7736,19 +7742,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7797,7 +7803,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7815,10 +7821,10 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7829,7 +7835,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7941,11 +7947,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7967,13 +7973,13 @@
         <v>133</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8055,7 +8061,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8081,23 +8087,23 @@
         <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8139,7 +8145,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8157,10 +8163,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8171,7 +8177,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8197,13 +8203,13 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8253,7 +8259,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8271,10 +8277,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8285,7 +8291,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8311,21 +8317,21 @@
         <v>107</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8367,7 +8373,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8385,10 +8391,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8399,7 +8405,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8425,14 +8431,14 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
@@ -8481,7 +8487,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8499,10 +8505,10 @@
         <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8513,7 +8519,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8536,19 +8542,19 @@
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8597,7 +8603,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8615,10 +8621,10 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8629,7 +8635,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8655,16 +8661,16 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8719,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8731,10 +8737,10 @@
         <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8771,10 +8777,10 @@
         <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8782,7 +8788,7 @@
         <v>79</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q57" t="s" s="2">
         <v>79</v>
@@ -8803,13 +8809,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8827,7 +8833,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8842,16 +8848,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8859,7 +8865,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8882,70 +8888,70 @@
         <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8960,13 +8966,13 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8977,11 +8983,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -9003,13 +9009,13 @@
         <v>163</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9035,11 +9041,11 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9057,7 +9063,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9072,24 +9078,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9201,11 +9207,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9227,13 +9233,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9315,7 +9321,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9338,19 +9344,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9399,7 +9405,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9417,10 +9423,10 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -9431,7 +9437,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9543,11 +9549,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9569,13 +9575,13 @@
         <v>133</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9657,7 +9663,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9683,16 +9689,16 @@
         <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9741,7 +9747,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9759,10 +9765,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9773,7 +9779,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9799,13 +9805,13 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9855,7 +9861,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9873,10 +9879,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9887,7 +9893,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9913,21 +9919,21 @@
         <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9969,7 +9975,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9987,10 +9993,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10001,7 +10007,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10027,14 +10033,14 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>79</v>
@@ -10083,7 +10089,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10101,10 +10107,10 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10115,7 +10121,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10138,19 +10144,19 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10199,7 +10205,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10217,10 +10223,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10231,7 +10237,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10257,16 +10263,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10315,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10333,10 +10339,10 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -10347,11 +10353,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10373,13 +10379,13 @@
         <v>163</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10405,11 +10411,11 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10427,7 +10433,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10436,7 +10442,7 @@
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10445,21 +10451,21 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10482,17 +10488,17 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>79</v>
@@ -10541,7 +10547,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10559,10 +10565,10 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
@@ -10573,7 +10579,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10596,13 +10602,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10653,7 +10659,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>87</v>
@@ -10668,28 +10674,28 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10708,13 +10714,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10765,7 +10771,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10780,28 +10786,28 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10820,13 +10826,13 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10877,7 +10883,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10892,24 +10898,24 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10932,13 +10938,13 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10968,10 +10974,10 @@
         <v>166</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10989,7 +10995,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11010,22 +11016,22 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11044,13 +11050,13 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11101,7 +11107,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11116,28 +11122,28 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -11156,16 +11162,16 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11215,7 +11221,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11230,28 +11236,28 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11273,13 +11279,13 @@
         <v>163</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11308,10 +11314,10 @@
         <v>166</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11329,7 +11335,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11344,16 +11350,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11361,11 +11367,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11384,16 +11390,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11443,7 +11449,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11458,16 +11464,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11475,7 +11481,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11501,10 +11507,10 @@
         <v>163</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11534,10 +11540,10 @@
         <v>166</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11555,7 +11561,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11576,10 +11582,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11587,7 +11593,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11610,13 +11616,13 @@
         <v>88</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11667,7 +11673,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11688,10 +11694,10 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11699,7 +11705,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11725,13 +11731,13 @@
         <v>163</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11760,10 +11766,10 @@
         <v>166</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11781,7 +11787,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11796,16 +11802,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11813,7 +11819,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11836,16 +11842,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11895,7 +11901,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11910,16 +11916,16 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11927,7 +11933,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11950,13 +11956,13 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12007,7 +12013,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12022,13 +12028,13 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12039,11 +12045,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12062,16 +12068,16 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12121,7 +12127,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12136,13 +12142,13 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12153,7 +12159,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12176,16 +12182,16 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12235,7 +12241,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12253,10 +12259,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12267,11 +12273,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12293,16 +12299,16 @@
         <v>163</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>79</v>
@@ -12330,10 +12336,10 @@
         <v>166</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12351,7 +12357,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12369,21 +12375,21 @@
         <v>79</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12495,11 +12501,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12521,13 +12527,13 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12609,10 +12615,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>79</v>
@@ -12634,13 +12640,13 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12723,7 +12729,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12746,19 +12752,19 @@
         <v>88</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>79</v>
@@ -12807,7 +12813,7 @@
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>77</v>
@@ -12825,10 +12831,10 @@
         <v>79</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12839,7 +12845,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12865,16 +12871,16 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>79</v>
@@ -12923,7 +12929,7 @@
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>77</v>
@@ -12941,10 +12947,10 @@
         <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -12955,7 +12961,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12978,13 +12984,13 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K94" t="s" s="2">
         <v>48</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -13035,7 +13041,7 @@
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>77</v>
@@ -13050,24 +13056,24 @@
         <v>99</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13093,10 +13099,10 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13147,7 +13153,7 @@
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>77</v>
@@ -13165,10 +13171,10 @@
         <v>79</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13179,7 +13185,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13202,16 +13208,16 @@
         <v>79</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13261,7 +13267,7 @@
         <v>79</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>77</v>
@@ -13276,13 +13282,13 @@
         <v>99</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -574,11 +574,11 @@
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
 </t>
   </si>
   <si>
-    <t>Other parties that have to take part in the prescription.</t>
+    <t>Info about the other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -4198,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4768,7 +4768,7 @@
         <v>87</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -425,7 +425,7 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -636,17 +636,17 @@
     <t>Request must leave draft status before</t>
   </si>
   <si>
-    <t>performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
+    <t>performertasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
 </t>
   </si>
   <si>
-    <t>Takes the place of performer and performerType</t>
-  </si>
-  <si>
-    <t>Intended performers for this request</t>
+    <t>BePerformerTaskReference</t>
+  </si>
+  <si>
+    <t>List of references to the tasks performed by each performer</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -1709,11 +1709,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
+    <t>Requested performer - typically reference to practitionerroles</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -2335,7 +2335,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="135.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>78</v>
@@ -11378,7 +11378,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>

--- a/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
+++ b/branches/StructureDefinition-be-referralprescription-nursing-compressiontherapy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -287,200 +287,204 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Reason for current status</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource.</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-statusReason}
-</t>
-  </si>
-  <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the resource.</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -558,27 +562,24 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-reason-referral-status</t>
   </si>
   <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-feedback-to-prescriber}
+    <t>informParty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-inform-party}
 </t>
   </si>
   <si>
-    <t>Give feedback to the prescriber</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Parties to inform of fulfillment of the prescription, besides the prescriber.</t>
   </si>
   <si>
     <t>coprescriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber-info}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber}
 </t>
   </si>
   <si>
-    <t>Info about the other parties that have to take part in the prescription.</t>
+    <t>Other parties that have to take part in the prescription.</t>
   </si>
   <si>
     <t>Other practitioners that must take part in this prescripiton</t>
@@ -613,7 +614,7 @@
     <t>latest</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-end-date}
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-lastest-end-date}
 </t>
   </si>
   <si>
@@ -623,30 +624,17 @@
     <t>Request must be performed before</t>
   </si>
   <si>
-    <t>latestDraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-latest-draft-date}
+    <t>performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-intended-performer}
 </t>
   </si>
   <si>
-    <t>The prescription must have left the draft status befor this moment</t>
-  </si>
-  <si>
-    <t>Request must leave draft status before</t>
-  </si>
-  <si>
-    <t>performertasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-performer-task-reference}
-</t>
-  </si>
-  <si>
-    <t>BePerformerTaskReference</t>
-  </si>
-  <si>
-    <t>List of references to the tasks performed by each performer</t>
+    <t>Takes the place of performer and performerType</t>
+  </si>
+  <si>
+    <t>Intended performers for this request</t>
   </si>
   <si>
     <t>proposalType</t>
@@ -672,29 +660,6 @@
     <t>BeTaskReference</t>
   </si>
   <si>
-    <t>pss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-ext-pss-info}
-</t>
-  </si>
-  <si>
-    <t>BePSSInfo</t>
-  </si>
-  <si>
-    <t>Prescription Search Support Info</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-ext-recorder}
-</t>
-  </si>
-  <si>
-    <t>The person responsable for this information, not necessarily the person who recorded the information</t>
-  </si>
-  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -1709,11 +1674,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
-    <t>Requested performer - typically reference to practitionerroles</t>
+    <t>Requested performer - typically reference to practitioner but could also be reference to related person by business identifier or Reference.display</t>
   </si>
   <si>
     <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
@@ -1919,31 +1884,6 @@
   </si>
   <si>
     <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.extension</t>
-  </si>
-  <si>
-    <t>bodyLaterality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://www.ehealth.fgov.be/standards/fhir/core-clinical/StructureDefinition/be-ext-laterality}
-</t>
-  </si>
-  <si>
-    <t>BeExtLaterality</t>
-  </si>
-  <si>
-    <t>An explicit statement of laterality of a lesion, or a treatment, etc.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.coding</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite.text</t>
   </si>
   <si>
     <t>ServiceRequest.note</t>
@@ -2316,7 +2256,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AN88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2326,43 +2266,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="135.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="83.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3534,13 +3474,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3591,7 +3531,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3612,7 +3552,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3623,7 +3563,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3694,7 +3634,7 @@
         <v>136</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>79</v>
@@ -3703,7 +3643,7 @@
         <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3735,7 +3675,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3761,13 +3701,13 @@
         <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3775,7 +3715,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>79</v>
@@ -3817,7 +3757,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>87</v>
@@ -3849,7 +3789,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3872,13 +3812,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3905,10 +3845,10 @@
         <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
         <v>79</v>
@@ -3917,17 +3857,17 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3959,10 +3899,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>79</v>
@@ -3984,13 +3924,13 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4017,11 +3957,11 @@
         <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>79</v>
@@ -4039,7 +3979,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -4074,7 +4014,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
@@ -4084,7 +4024,7 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -4096,13 +4036,13 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4174,7 +4114,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -4198,7 +4138,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4651,7 +4591,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
@@ -4768,7 +4708,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4900,7 +4840,7 @@
         <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4981,43 +4921,45 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5065,7 +5007,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5074,7 +5016,7 @@
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>139</v>
@@ -5086,7 +5028,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -5095,13 +5037,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5110,7 +5050,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -5119,18 +5059,20 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -5167,19 +5109,17 @@
         <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5188,33 +5128,33 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>79</v>
@@ -5227,24 +5167,26 @@
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -5293,7 +5235,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5302,66 +5244,62 @@
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5409,19 +5347,19 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>79</v>
@@ -5430,7 +5368,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5441,11 +5379,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5455,25 +5393,25 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5511,9 +5449,11 @@
         <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5521,7 +5461,7 @@
         <v>137</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5533,31 +5473,29 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5572,24 +5510,26 @@
         <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5613,13 +5553,13 @@
         <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>79</v>
@@ -5637,13 +5577,13 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
@@ -5652,24 +5592,24 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5689,19 +5629,23 @@
         <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5725,13 +5669,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5693,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5761,16 +5705,16 @@
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5781,18 +5725,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5801,33 +5745,35 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5851,40 +5797,40 @@
         <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5895,7 +5841,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5903,7 +5849,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
@@ -5912,26 +5858,24 @@
         <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5943,7 +5887,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5955,13 +5899,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5923,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5997,10 +5941,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6011,7 +5955,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6034,20 +5978,16 @@
         <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6071,13 +6011,13 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -6095,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6113,10 +6053,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6127,7 +6067,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6135,7 +6075,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
@@ -6150,32 +6090,30 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -6211,7 +6149,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6229,10 +6167,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6243,7 +6181,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6251,10 +6189,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>79</v>
@@ -6266,16 +6204,16 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6289,7 +6227,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -6325,13 +6263,13 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
@@ -6340,13 +6278,13 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6357,7 +6295,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6368,7 +6306,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>79</v>
@@ -6380,15 +6318,17 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -6437,13 +6377,13 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
@@ -6452,13 +6392,13 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6467,23 +6407,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6492,17 +6432,15 @@
         <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>79</v>
@@ -6551,13 +6489,13 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
@@ -6566,13 +6504,13 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6583,11 +6521,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6606,17 +6544,15 @@
         <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6665,7 +6601,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6680,13 +6616,13 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6695,23 +6631,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6720,18 +6656,20 @@
         <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6779,13 +6717,13 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
@@ -6794,13 +6732,13 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6811,38 +6749,40 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>306</v>
+        <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6867,13 +6807,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6891,13 +6831,13 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>79</v>
@@ -6906,55 +6846,57 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6979,13 +6921,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -7003,13 +6945,13 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -7018,16 +6960,16 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7035,15 +6977,15 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>87</v>
@@ -7058,19 +7000,19 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7095,13 +7037,11 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -7119,13 +7059,13 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
@@ -7134,24 +7074,24 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7159,32 +7099,30 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7209,13 +7147,13 @@
         <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>79</v>
@@ -7233,10 +7171,10 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7245,59 +7183,59 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>153</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7323,63 +7261,63 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>156</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>153</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7387,13 +7325,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7402,7 +7340,7 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>350</v>
@@ -7439,29 +7377,31 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X45" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7485,7 +7425,7 @@
         <v>356</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7516,13 +7456,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7573,7 +7513,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7594,7 +7534,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7609,7 +7549,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7631,13 +7571,13 @@
         <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7678,7 +7618,7 @@
         <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>79</v>
@@ -7687,7 +7627,7 @@
         <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7708,7 +7648,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7730,7 +7670,7 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7742,26 +7682,26 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>79</v>
@@ -7809,7 +7749,7 @@
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
@@ -7855,18 +7795,20 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7915,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7927,16 +7869,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7947,18 +7889,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7967,27 +7909,27 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>79</v>
@@ -8017,40 +7959,40 @@
         <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8061,7 +8003,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8084,26 +8026,24 @@
         <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
@@ -8145,7 +8085,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8163,10 +8103,10 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8177,7 +8117,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8200,18 +8140,20 @@
         <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8259,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8277,10 +8219,10 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
@@ -8291,7 +8233,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8314,24 +8256,26 @@
         <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>79</v>
@@ -8373,7 +8317,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8391,10 +8335,10 @@
         <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
@@ -8405,7 +8349,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8428,22 +8372,22 @@
         <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="Q54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8463,13 +8407,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8487,7 +8431,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8502,16 +8446,16 @@
         <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8519,7 +8463,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8536,30 +8480,32 @@
         <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8603,7 +8549,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8618,13 +8564,13 @@
         <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8633,23 +8579,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8658,20 +8604,18 @@
         <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8695,13 +8639,11 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8719,7 +8661,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8734,24 +8676,24 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8771,25 +8713,23 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>151</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P57" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8809,13 +8749,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8773,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>418</v>
+        <v>152</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8845,19 +8785,19 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8865,49 +8805,45 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>402</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>228</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8939,40 +8875,40 @@
         <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>435</v>
+        <v>153</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8981,23 +8917,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>437</v>
+        <v>79</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9006,18 +8942,20 @@
         <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>438</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>439</v>
+        <v>351</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9041,11 +8979,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9063,13 +9003,13 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
@@ -9078,24 +9018,24 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>444</v>
+        <v>356</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9118,13 +9058,13 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9175,7 +9115,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9196,7 +9136,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9207,11 +9147,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9233,13 +9173,13 @@
         <v>133</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9280,7 +9220,7 @@
         <v>136</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>79</v>
@@ -9289,7 +9229,7 @@
         <v>137</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9310,7 +9250,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9321,7 +9261,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9332,7 +9272,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -9344,19 +9284,19 @@
         <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9411,7 +9351,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -9437,7 +9377,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9457,18 +9397,20 @@
         <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9517,7 +9459,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9529,16 +9471,16 @@
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>152</v>
+        <v>374</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9549,18 +9491,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9569,27 +9511,27 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>238</v>
+        <v>376</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>79</v>
@@ -9619,40 +9561,40 @@
         <v>79</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>380</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9663,7 +9605,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9686,19 +9628,17 @@
         <v>88</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
@@ -9747,7 +9687,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9765,10 +9705,10 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9779,7 +9719,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9802,18 +9742,20 @@
         <v>88</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>391</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9861,7 +9803,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9879,10 +9821,10 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9893,7 +9835,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9916,24 +9858,26 @@
         <v>88</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>79</v>
@@ -9975,7 +9919,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9993,10 +9937,10 @@
         <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10005,23 +9949,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10030,18 +9974,18 @@
         <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10065,13 +10009,11 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="X68" s="2"/>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -10089,16 +10031,16 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10107,21 +10049,21 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10144,19 +10086,17 @@
         <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>79</v>
@@ -10205,7 +10145,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10223,10 +10163,10 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10235,9 +10175,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10245,13 +10185,13 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10260,20 +10200,16 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>463</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10321,10 +10257,10 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -10336,38 +10272,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>469</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>470</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10376,17 +10312,15 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>163</v>
+        <v>473</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>79</v>
@@ -10411,11 +10345,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -10433,43 +10369,43 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10479,7 +10415,7 @@
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10488,18 +10424,16 @@
         <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10547,7 +10481,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10562,24 +10496,24 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>486</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10587,7 +10521,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>87</v>
@@ -10602,13 +10536,13 @@
         <v>88</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10635,13 +10569,13 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10659,10 +10593,10 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>87</v>
@@ -10674,38 +10608,38 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10714,13 +10648,13 @@
         <v>88</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10771,7 +10705,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10786,32 +10720,32 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>87</v>
@@ -10826,15 +10760,17 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -10883,7 +10819,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -10898,35 +10834,35 @@
         <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>88</v>
@@ -10938,15 +10874,17 @@
         <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>503</v>
+        <v>164</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>79</v>
@@ -10971,13 +10909,13 @@
         <v>79</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>79</v>
@@ -10995,7 +10933,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11010,35 +10948,35 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -11050,15 +10988,17 @@
         <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>535</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>79</v>
@@ -11107,13 +11047,13 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>79</v>
@@ -11122,38 +11062,38 @@
         <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>519</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11162,17 +11102,15 @@
         <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>522</v>
+        <v>164</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>79</v>
@@ -11197,13 +11135,13 @@
         <v>79</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>544</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>79</v>
@@ -11221,13 +11159,13 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>79</v>
@@ -11236,38 +11174,38 @@
         <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>526</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>532</v>
+        <v>79</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11276,17 +11214,15 @@
         <v>88</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>163</v>
+        <v>547</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11311,13 +11247,13 @@
         <v>79</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>537</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>79</v>
@@ -11335,13 +11271,13 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>79</v>
@@ -11350,16 +11286,16 @@
         <v>99</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11367,18 +11303,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>88</v>
@@ -11390,16 +11326,16 @@
         <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>544</v>
+        <v>164</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11425,13 +11361,13 @@
         <v>79</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>79</v>
@@ -11449,7 +11385,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11464,16 +11400,16 @@
         <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11481,7 +11417,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11504,15 +11440,17 @@
         <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>163</v>
+        <v>561</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>79</v>
@@ -11537,13 +11475,13 @@
         <v>79</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>79</v>
@@ -11561,7 +11499,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11576,16 +11514,16 @@
         <v>99</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11593,7 +11531,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11613,16 +11551,16 @@
         <v>79</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11673,7 +11611,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11688,16 +11626,16 @@
         <v>99</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11705,18 +11643,18 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -11725,19 +11663,19 @@
         <v>79</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>163</v>
+        <v>577</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>562</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11763,13 +11701,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11787,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>77</v>
@@ -11802,16 +11740,16 @@
         <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11819,7 +11757,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11842,16 +11780,16 @@
         <v>88</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11901,7 +11839,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -11916,28 +11854,28 @@
         <v>99</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11947,25 +11885,29 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>580</v>
+        <v>164</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11989,13 +11931,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>598</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12013,7 +11955,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12028,28 +11970,28 @@
         <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>600</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>587</v>
+        <v>79</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12068,17 +12010,15 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>589</v>
+        <v>48</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12127,7 +12067,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12142,24 +12082,24 @@
         <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>593</v>
+        <v>455</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12170,10 +12110,10 @@
         <v>77</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12182,17 +12122,15 @@
         <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>596</v>
+        <v>149</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12241,13 +12179,13 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>79</v>
@@ -12259,10 +12197,10 @@
         <v>79</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>600</v>
+        <v>455</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12271,13 +12209,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12287,29 +12225,27 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>163</v>
+        <v>612</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>607</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12333,13 +12269,13 @@
         <v>79</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>609</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>79</v>
@@ -12357,7 +12293,7 @@
         <v>79</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>77</v>
@@ -12372,933 +12308,23 @@
         <v>99</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>79</v>
+        <v>616</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>600</v>
+        <v>130</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN96">
+  <autoFilter ref="A1:AN88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13308,7 +12334,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI95">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
